--- a/Bases_de_Dados_(2022-2023)/Croatia Second NL_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Croatia Second NL_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="88">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -639,7 +639,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK137"/>
+  <dimension ref="A1:BK139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1161,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT3">
         <v>1.11</v>
@@ -2310,7 +2310,7 @@
         <v>1.56</v>
       </c>
       <c r="AT9">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2498,7 +2498,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT10">
         <v>0.67</v>
@@ -3647,7 +3647,7 @@
         <v>1.88</v>
       </c>
       <c r="AT16">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -3835,7 +3835,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT17">
         <v>1.25</v>
@@ -6512,7 +6512,7 @@
         <v>1.13</v>
       </c>
       <c r="AT31">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AU31">
         <v>1.97</v>
@@ -6891,7 +6891,7 @@
         <v>3</v>
       </c>
       <c r="AS33">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT33">
         <v>2</v>
@@ -7464,7 +7464,7 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT36">
         <v>0.33</v>
@@ -8422,7 +8422,7 @@
         <v>2.56</v>
       </c>
       <c r="AT41">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU41">
         <v>0</v>
@@ -8992,7 +8992,7 @@
         <v>2</v>
       </c>
       <c r="AS44">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT44">
         <v>2</v>
@@ -9950,7 +9950,7 @@
         <v>1.56</v>
       </c>
       <c r="AT49">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AU49">
         <v>2.14</v>
@@ -10329,7 +10329,7 @@
         <v>1</v>
       </c>
       <c r="AS51">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT51">
         <v>1.25</v>
@@ -11478,7 +11478,7 @@
         <v>1.78</v>
       </c>
       <c r="AT57">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU57">
         <v>1.69</v>
@@ -12621,7 +12621,7 @@
         <v>0.5</v>
       </c>
       <c r="AS63">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT63">
         <v>1.5</v>
@@ -13194,7 +13194,7 @@
         <v>1.75</v>
       </c>
       <c r="AS66">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT66">
         <v>1.22</v>
@@ -13388,7 +13388,7 @@
         <v>0.22</v>
       </c>
       <c r="AT67">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AU67">
         <v>1.59</v>
@@ -13770,7 +13770,7 @@
         <v>1.75</v>
       </c>
       <c r="AT69">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU69">
         <v>1.44</v>
@@ -14722,7 +14722,7 @@
         <v>0.25</v>
       </c>
       <c r="AS74">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT74">
         <v>0.88</v>
@@ -15104,7 +15104,7 @@
         <v>2.2</v>
       </c>
       <c r="AS76">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT76">
         <v>2.33</v>
@@ -17208,7 +17208,7 @@
         <v>1.63</v>
       </c>
       <c r="AT87">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU87">
         <v>1.41</v>
@@ -17590,7 +17590,7 @@
         <v>1.33</v>
       </c>
       <c r="AT89">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AU89">
         <v>1.41</v>
@@ -17778,7 +17778,7 @@
         <v>0.6</v>
       </c>
       <c r="AS90">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT90">
         <v>0.38</v>
@@ -18163,7 +18163,7 @@
         <v>1.5</v>
       </c>
       <c r="AT92">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU92">
         <v>1.29</v>
@@ -19115,7 +19115,7 @@
         <v>0.86</v>
       </c>
       <c r="AS97">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT97">
         <v>0.67</v>
@@ -20264,7 +20264,7 @@
         <v>2</v>
       </c>
       <c r="AT103">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AU103">
         <v>1.72</v>
@@ -20834,7 +20834,7 @@
         <v>1.57</v>
       </c>
       <c r="AS106">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT106">
         <v>1.33</v>
@@ -21410,7 +21410,7 @@
         <v>1.13</v>
       </c>
       <c r="AT109">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU109">
         <v>2.3</v>
@@ -22553,7 +22553,7 @@
         <v>0</v>
       </c>
       <c r="AS115">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT115">
         <v>0.33</v>
@@ -22747,7 +22747,7 @@
         <v>2</v>
       </c>
       <c r="AT116">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AU116">
         <v>1.59</v>
@@ -23702,7 +23702,7 @@
         <v>1.4</v>
       </c>
       <c r="AT121">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU121">
         <v>1.7</v>
@@ -24272,7 +24272,7 @@
         <v>0.67</v>
       </c>
       <c r="AS124">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT124">
         <v>0.57</v>
@@ -25039,7 +25039,7 @@
         <v>1.63</v>
       </c>
       <c r="AT128">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AU128">
         <v>1.84</v>
@@ -26185,7 +26185,7 @@
         <v>1.89</v>
       </c>
       <c r="AT134">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU134">
         <v>1.8</v>
@@ -26810,6 +26810,388 @@
       </c>
       <c r="BK137">
         <v>14</v>
+      </c>
+    </row>
+    <row r="138" spans="1:63">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>4342352</v>
+      </c>
+      <c r="C138" t="s">
+        <v>63</v>
+      </c>
+      <c r="D138" t="s">
+        <v>64</v>
+      </c>
+      <c r="E138" s="2">
+        <v>44995.47916666666</v>
+      </c>
+      <c r="F138">
+        <v>18</v>
+      </c>
+      <c r="G138" t="s">
+        <v>66</v>
+      </c>
+      <c r="H138" t="s">
+        <v>77</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <v>0</v>
+      </c>
+      <c r="L138">
+        <v>4</v>
+      </c>
+      <c r="M138">
+        <v>0</v>
+      </c>
+      <c r="N138">
+        <v>4</v>
+      </c>
+      <c r="O138" t="s">
+        <v>85</v>
+      </c>
+      <c r="P138" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q138">
+        <v>8</v>
+      </c>
+      <c r="R138">
+        <v>1</v>
+      </c>
+      <c r="S138">
+        <v>9</v>
+      </c>
+      <c r="T138">
+        <v>2</v>
+      </c>
+      <c r="U138">
+        <v>2.5</v>
+      </c>
+      <c r="V138">
+        <v>5</v>
+      </c>
+      <c r="W138">
+        <v>0</v>
+      </c>
+      <c r="X138">
+        <v>0</v>
+      </c>
+      <c r="Y138">
+        <v>2.28</v>
+      </c>
+      <c r="Z138">
+        <v>1.56</v>
+      </c>
+      <c r="AA138">
+        <v>0</v>
+      </c>
+      <c r="AB138">
+        <v>0</v>
+      </c>
+      <c r="AC138">
+        <v>1.5</v>
+      </c>
+      <c r="AD138">
+        <v>4.1</v>
+      </c>
+      <c r="AE138">
+        <v>5</v>
+      </c>
+      <c r="AF138">
+        <v>0</v>
+      </c>
+      <c r="AG138">
+        <v>0</v>
+      </c>
+      <c r="AH138">
+        <v>1.15</v>
+      </c>
+      <c r="AI138">
+        <v>4.75</v>
+      </c>
+      <c r="AJ138">
+        <v>1.53</v>
+      </c>
+      <c r="AK138">
+        <v>2.4</v>
+      </c>
+      <c r="AL138">
+        <v>1.61</v>
+      </c>
+      <c r="AM138">
+        <v>2.29</v>
+      </c>
+      <c r="AN138">
+        <v>1.11</v>
+      </c>
+      <c r="AO138">
+        <v>1.17</v>
+      </c>
+      <c r="AP138">
+        <v>2.42</v>
+      </c>
+      <c r="AQ138">
+        <v>1.5</v>
+      </c>
+      <c r="AR138">
+        <v>0.33</v>
+      </c>
+      <c r="AS138">
+        <v>1.67</v>
+      </c>
+      <c r="AT138">
+        <v>0.3</v>
+      </c>
+      <c r="AU138">
+        <v>1.82</v>
+      </c>
+      <c r="AV138">
+        <v>1.42</v>
+      </c>
+      <c r="AW138">
+        <v>3.24</v>
+      </c>
+      <c r="AX138">
+        <v>0</v>
+      </c>
+      <c r="AY138">
+        <v>0</v>
+      </c>
+      <c r="AZ138">
+        <v>0</v>
+      </c>
+      <c r="BA138">
+        <v>0</v>
+      </c>
+      <c r="BB138">
+        <v>0</v>
+      </c>
+      <c r="BC138">
+        <v>0</v>
+      </c>
+      <c r="BD138">
+        <v>0</v>
+      </c>
+      <c r="BE138">
+        <v>0</v>
+      </c>
+      <c r="BF138">
+        <v>4</v>
+      </c>
+      <c r="BG138">
+        <v>3</v>
+      </c>
+      <c r="BH138">
+        <v>5</v>
+      </c>
+      <c r="BI138">
+        <v>4</v>
+      </c>
+      <c r="BJ138">
+        <v>9</v>
+      </c>
+      <c r="BK138">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139" spans="1:63">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>4342356</v>
+      </c>
+      <c r="C139" t="s">
+        <v>63</v>
+      </c>
+      <c r="D139" t="s">
+        <v>64</v>
+      </c>
+      <c r="E139" s="2">
+        <v>44995.47916666666</v>
+      </c>
+      <c r="F139">
+        <v>18</v>
+      </c>
+      <c r="G139" t="s">
+        <v>78</v>
+      </c>
+      <c r="H139" t="s">
+        <v>69</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+      <c r="K139">
+        <v>0</v>
+      </c>
+      <c r="L139">
+        <v>1</v>
+      </c>
+      <c r="M139">
+        <v>1</v>
+      </c>
+      <c r="N139">
+        <v>2</v>
+      </c>
+      <c r="O139" t="s">
+        <v>84</v>
+      </c>
+      <c r="P139" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q139">
+        <v>-1</v>
+      </c>
+      <c r="R139">
+        <v>-1</v>
+      </c>
+      <c r="S139">
+        <v>-1</v>
+      </c>
+      <c r="T139">
+        <v>3.6</v>
+      </c>
+      <c r="U139">
+        <v>2.2</v>
+      </c>
+      <c r="V139">
+        <v>2.63</v>
+      </c>
+      <c r="W139">
+        <v>0</v>
+      </c>
+      <c r="X139">
+        <v>0</v>
+      </c>
+      <c r="Y139">
+        <v>0</v>
+      </c>
+      <c r="Z139">
+        <v>0</v>
+      </c>
+      <c r="AA139">
+        <v>0</v>
+      </c>
+      <c r="AB139">
+        <v>0</v>
+      </c>
+      <c r="AC139">
+        <v>3</v>
+      </c>
+      <c r="AD139">
+        <v>3.6</v>
+      </c>
+      <c r="AE139">
+        <v>2</v>
+      </c>
+      <c r="AF139">
+        <v>0</v>
+      </c>
+      <c r="AG139">
+        <v>0</v>
+      </c>
+      <c r="AH139">
+        <v>0</v>
+      </c>
+      <c r="AI139">
+        <v>0</v>
+      </c>
+      <c r="AJ139">
+        <v>1.85</v>
+      </c>
+      <c r="AK139">
+        <v>1.95</v>
+      </c>
+      <c r="AL139">
+        <v>0</v>
+      </c>
+      <c r="AM139">
+        <v>0</v>
+      </c>
+      <c r="AN139">
+        <v>0</v>
+      </c>
+      <c r="AO139">
+        <v>0</v>
+      </c>
+      <c r="AP139">
+        <v>0</v>
+      </c>
+      <c r="AQ139">
+        <v>1.25</v>
+      </c>
+      <c r="AR139">
+        <v>1.75</v>
+      </c>
+      <c r="AS139">
+        <v>1.22</v>
+      </c>
+      <c r="AT139">
+        <v>1.67</v>
+      </c>
+      <c r="AU139">
+        <v>1.63</v>
+      </c>
+      <c r="AV139">
+        <v>1.61</v>
+      </c>
+      <c r="AW139">
+        <v>3.24</v>
+      </c>
+      <c r="AX139">
+        <v>0</v>
+      </c>
+      <c r="AY139">
+        <v>0</v>
+      </c>
+      <c r="AZ139">
+        <v>0</v>
+      </c>
+      <c r="BA139">
+        <v>0</v>
+      </c>
+      <c r="BB139">
+        <v>0</v>
+      </c>
+      <c r="BC139">
+        <v>0</v>
+      </c>
+      <c r="BD139">
+        <v>0</v>
+      </c>
+      <c r="BE139">
+        <v>0</v>
+      </c>
+      <c r="BF139">
+        <v>-1</v>
+      </c>
+      <c r="BG139">
+        <v>-1</v>
+      </c>
+      <c r="BH139">
+        <v>-1</v>
+      </c>
+      <c r="BI139">
+        <v>-1</v>
+      </c>
+      <c r="BJ139">
+        <v>-1</v>
+      </c>
+      <c r="BK139">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Croatia Second NL_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Croatia Second NL_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="89">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -278,6 +278,9 @@
   </si>
   <si>
     <t>['-1', '-1', '-1', '-1', '-1']</t>
+  </si>
+  <si>
+    <t>['-1', '-1', '-1', '-1', '-1', '-1', '-1']</t>
   </si>
 </sst>
 </file>
@@ -639,7 +642,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK139"/>
+  <dimension ref="A1:BK145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1543,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT5">
         <v>1.22</v>
@@ -1928,7 +1931,7 @@
         <v>1.33</v>
       </c>
       <c r="AT7">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2689,10 +2692,10 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT11">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -2880,10 +2883,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT12">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3071,10 +3074,10 @@
         <v>1</v>
       </c>
       <c r="AS13">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT13">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3262,10 +3265,10 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AT14">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -3453,10 +3456,10 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT15">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -3838,7 +3841,7 @@
         <v>1.22</v>
       </c>
       <c r="AT17">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -5554,10 +5557,10 @@
         <v>0.5</v>
       </c>
       <c r="AS26">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT26">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU26">
         <v>1.19</v>
@@ -5745,10 +5748,10 @@
         <v>3</v>
       </c>
       <c r="AS27">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT27">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AU27">
         <v>0</v>
@@ -5936,7 +5939,7 @@
         <v>0.5</v>
       </c>
       <c r="AS28">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT28">
         <v>1.33</v>
@@ -6130,7 +6133,7 @@
         <v>1.88</v>
       </c>
       <c r="AT29">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU29">
         <v>0</v>
@@ -6318,10 +6321,10 @@
         <v>0</v>
       </c>
       <c r="AS30">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT30">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU30">
         <v>1.81</v>
@@ -6509,7 +6512,7 @@
         <v>1</v>
       </c>
       <c r="AS31">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT31">
         <v>1.67</v>
@@ -6703,7 +6706,7 @@
         <v>1.4</v>
       </c>
       <c r="AT32">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU32">
         <v>2.22</v>
@@ -7658,7 +7661,7 @@
         <v>1.89</v>
       </c>
       <c r="AT37">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU37">
         <v>0</v>
@@ -8037,7 +8040,7 @@
         <v>2</v>
       </c>
       <c r="AS39">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AT39">
         <v>2.33</v>
@@ -8804,7 +8807,7 @@
         <v>1.88</v>
       </c>
       <c r="AT43">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU43">
         <v>0</v>
@@ -8995,7 +8998,7 @@
         <v>1.22</v>
       </c>
       <c r="AT44">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AU44">
         <v>1.89</v>
@@ -9183,10 +9186,10 @@
         <v>0</v>
       </c>
       <c r="AS45">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT45">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU45">
         <v>1.97</v>
@@ -9374,10 +9377,10 @@
         <v>0.67</v>
       </c>
       <c r="AS46">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT46">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU46">
         <v>0</v>
@@ -9565,7 +9568,7 @@
         <v>2.33</v>
       </c>
       <c r="AS47">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT47">
         <v>2.33</v>
@@ -9756,7 +9759,7 @@
         <v>1.33</v>
       </c>
       <c r="AS48">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT48">
         <v>1.33</v>
@@ -10141,7 +10144,7 @@
         <v>0.22</v>
       </c>
       <c r="AT50">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU50">
         <v>1.61</v>
@@ -10332,7 +10335,7 @@
         <v>1.67</v>
       </c>
       <c r="AT51">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU51">
         <v>1.53</v>
@@ -10520,7 +10523,7 @@
         <v>0.5</v>
       </c>
       <c r="AS52">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AT52">
         <v>0.67</v>
@@ -11284,7 +11287,7 @@
         <v>0.67</v>
       </c>
       <c r="AS56">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT56">
         <v>1.11</v>
@@ -11860,7 +11863,7 @@
         <v>1.56</v>
       </c>
       <c r="AT59">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU59">
         <v>1.45</v>
@@ -12048,7 +12051,7 @@
         <v>2.5</v>
       </c>
       <c r="AS60">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT60">
         <v>2.33</v>
@@ -12242,7 +12245,7 @@
         <v>1.4</v>
       </c>
       <c r="AT61">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AU61">
         <v>1.65</v>
@@ -12624,7 +12627,7 @@
         <v>1.22</v>
       </c>
       <c r="AT63">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU63">
         <v>1.68</v>
@@ -12812,10 +12815,10 @@
         <v>0</v>
       </c>
       <c r="AS64">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT64">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU64">
         <v>2.12</v>
@@ -13003,7 +13006,7 @@
         <v>0.5</v>
       </c>
       <c r="AS65">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT65">
         <v>1.11</v>
@@ -13767,7 +13770,7 @@
         <v>0.33</v>
       </c>
       <c r="AS69">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT69">
         <v>0.3</v>
@@ -13961,7 +13964,7 @@
         <v>1.33</v>
       </c>
       <c r="AT70">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU70">
         <v>1.42</v>
@@ -14152,7 +14155,7 @@
         <v>2.56</v>
       </c>
       <c r="AT71">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU71">
         <v>3.01</v>
@@ -14340,7 +14343,7 @@
         <v>0.75</v>
       </c>
       <c r="AS72">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AT72">
         <v>0.5600000000000001</v>
@@ -14531,7 +14534,7 @@
         <v>0.4</v>
       </c>
       <c r="AS73">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT73">
         <v>0.67</v>
@@ -14725,7 +14728,7 @@
         <v>1.67</v>
       </c>
       <c r="AT74">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU74">
         <v>1.77</v>
@@ -15295,7 +15298,7 @@
         <v>1</v>
       </c>
       <c r="AS77">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT77">
         <v>1.33</v>
@@ -15489,7 +15492,7 @@
         <v>1.4</v>
       </c>
       <c r="AT78">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU78">
         <v>1.65</v>
@@ -15680,7 +15683,7 @@
         <v>1.56</v>
       </c>
       <c r="AT79">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU79">
         <v>1.36</v>
@@ -15871,7 +15874,7 @@
         <v>1.89</v>
       </c>
       <c r="AT80">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AU80">
         <v>1.27</v>
@@ -16059,7 +16062,7 @@
         <v>0.83</v>
       </c>
       <c r="AS81">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT81">
         <v>0.67</v>
@@ -16444,7 +16447,7 @@
         <v>1.78</v>
       </c>
       <c r="AT83">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU83">
         <v>1.92</v>
@@ -16632,7 +16635,7 @@
         <v>0</v>
       </c>
       <c r="AS84">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT84">
         <v>0.33</v>
@@ -16823,10 +16826,10 @@
         <v>1</v>
       </c>
       <c r="AS85">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AT85">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU85">
         <v>1.69</v>
@@ -17014,7 +17017,7 @@
         <v>0.6</v>
       </c>
       <c r="AS86">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT86">
         <v>0.5600000000000001</v>
@@ -17205,7 +17208,7 @@
         <v>0.25</v>
       </c>
       <c r="AS87">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT87">
         <v>0.3</v>
@@ -17781,7 +17784,7 @@
         <v>1.67</v>
       </c>
       <c r="AT90">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU90">
         <v>1.77</v>
@@ -17972,7 +17975,7 @@
         <v>0.22</v>
       </c>
       <c r="AT91">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AU91">
         <v>1.3</v>
@@ -18160,7 +18163,7 @@
         <v>0.4</v>
       </c>
       <c r="AS92">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT92">
         <v>0.3</v>
@@ -18351,7 +18354,7 @@
         <v>0.5</v>
       </c>
       <c r="AS93">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT93">
         <v>1.11</v>
@@ -18927,7 +18930,7 @@
         <v>1.89</v>
       </c>
       <c r="AT96">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU96">
         <v>1.27</v>
@@ -19497,10 +19500,10 @@
         <v>1</v>
       </c>
       <c r="AS99">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT99">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU99">
         <v>1.82</v>
@@ -19688,7 +19691,7 @@
         <v>0</v>
       </c>
       <c r="AS100">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT100">
         <v>0.33</v>
@@ -20070,10 +20073,10 @@
         <v>0.8</v>
       </c>
       <c r="AS102">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT102">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU102">
         <v>1.59</v>
@@ -20261,7 +20264,7 @@
         <v>2</v>
       </c>
       <c r="AS103">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AT103">
         <v>1.67</v>
@@ -20646,7 +20649,7 @@
         <v>1.33</v>
       </c>
       <c r="AT105">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU105">
         <v>1.41</v>
@@ -21028,7 +21031,7 @@
         <v>0.22</v>
       </c>
       <c r="AT107">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU107">
         <v>1.24</v>
@@ -21216,7 +21219,7 @@
         <v>0.43</v>
       </c>
       <c r="AS108">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT108">
         <v>0.5600000000000001</v>
@@ -21407,7 +21410,7 @@
         <v>0.33</v>
       </c>
       <c r="AS109">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT109">
         <v>0.3</v>
@@ -21983,7 +21986,7 @@
         <v>2.56</v>
       </c>
       <c r="AT112">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU112">
         <v>3.01</v>
@@ -22365,7 +22368,7 @@
         <v>1.78</v>
       </c>
       <c r="AT114">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AU114">
         <v>1.89</v>
@@ -22744,7 +22747,7 @@
         <v>1.83</v>
       </c>
       <c r="AS116">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT116">
         <v>1.67</v>
@@ -22935,10 +22938,10 @@
         <v>1.33</v>
       </c>
       <c r="AS117">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT117">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU117">
         <v>1.84</v>
@@ -23317,7 +23320,7 @@
         <v>2.17</v>
       </c>
       <c r="AS119">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT119">
         <v>2</v>
@@ -23508,10 +23511,10 @@
         <v>1.17</v>
       </c>
       <c r="AS120">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AT120">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU120">
         <v>1.65</v>
@@ -23890,10 +23893,10 @@
         <v>1</v>
       </c>
       <c r="AS122">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT122">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU122">
         <v>1.69</v>
@@ -24084,7 +24087,7 @@
         <v>1.78</v>
       </c>
       <c r="AT123">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU123">
         <v>1.78</v>
@@ -24275,7 +24278,7 @@
         <v>1.22</v>
       </c>
       <c r="AT124">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU124">
         <v>1.63</v>
@@ -24463,10 +24466,10 @@
         <v>1.86</v>
       </c>
       <c r="AS125">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AT125">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AU125">
         <v>1.65</v>
@@ -24654,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="AS126">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT126">
         <v>0.33</v>
@@ -24848,7 +24851,7 @@
         <v>1.88</v>
       </c>
       <c r="AT127">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU127">
         <v>2.06</v>
@@ -25036,7 +25039,7 @@
         <v>2</v>
       </c>
       <c r="AS128">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT128">
         <v>1.67</v>
@@ -25227,7 +25230,7 @@
         <v>2</v>
       </c>
       <c r="AS129">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT129">
         <v>2</v>
@@ -25991,7 +25994,7 @@
         <v>1.88</v>
       </c>
       <c r="AS133">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT133">
         <v>2</v>
@@ -27191,6 +27194,1152 @@
         <v>-1</v>
       </c>
       <c r="BK139">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:63">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>4342353</v>
+      </c>
+      <c r="C140" t="s">
+        <v>63</v>
+      </c>
+      <c r="D140" t="s">
+        <v>64</v>
+      </c>
+      <c r="E140" s="2">
+        <v>44996.33333333334</v>
+      </c>
+      <c r="F140">
+        <v>18</v>
+      </c>
+      <c r="G140" t="s">
+        <v>73</v>
+      </c>
+      <c r="H140" t="s">
+        <v>70</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <v>0</v>
+      </c>
+      <c r="L140">
+        <v>7</v>
+      </c>
+      <c r="M140">
+        <v>1</v>
+      </c>
+      <c r="N140">
+        <v>8</v>
+      </c>
+      <c r="O140" t="s">
+        <v>88</v>
+      </c>
+      <c r="P140" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q140">
+        <v>5</v>
+      </c>
+      <c r="R140">
+        <v>1</v>
+      </c>
+      <c r="S140">
+        <v>6</v>
+      </c>
+      <c r="T140">
+        <v>1.67</v>
+      </c>
+      <c r="U140">
+        <v>2.63</v>
+      </c>
+      <c r="V140">
+        <v>8</v>
+      </c>
+      <c r="W140">
+        <v>1.22</v>
+      </c>
+      <c r="X140">
+        <v>3.8</v>
+      </c>
+      <c r="Y140">
+        <v>2.13</v>
+      </c>
+      <c r="Z140">
+        <v>1.64</v>
+      </c>
+      <c r="AA140">
+        <v>0</v>
+      </c>
+      <c r="AB140">
+        <v>0</v>
+      </c>
+      <c r="AC140">
+        <v>1.29</v>
+      </c>
+      <c r="AD140">
+        <v>4.5</v>
+      </c>
+      <c r="AE140">
+        <v>9</v>
+      </c>
+      <c r="AF140">
+        <v>0</v>
+      </c>
+      <c r="AG140">
+        <v>0</v>
+      </c>
+      <c r="AH140">
+        <v>0</v>
+      </c>
+      <c r="AI140">
+        <v>0</v>
+      </c>
+      <c r="AJ140">
+        <v>1.44</v>
+      </c>
+      <c r="AK140">
+        <v>2.7</v>
+      </c>
+      <c r="AL140">
+        <v>1.79</v>
+      </c>
+      <c r="AM140">
+        <v>1.87</v>
+      </c>
+      <c r="AN140">
+        <v>1.03</v>
+      </c>
+      <c r="AO140">
+        <v>1.11</v>
+      </c>
+      <c r="AP140">
+        <v>3.44</v>
+      </c>
+      <c r="AQ140">
+        <v>1.75</v>
+      </c>
+      <c r="AR140">
+        <v>0.38</v>
+      </c>
+      <c r="AS140">
+        <v>1.89</v>
+      </c>
+      <c r="AT140">
+        <v>0.33</v>
+      </c>
+      <c r="AU140">
+        <v>1.69</v>
+      </c>
+      <c r="AV140">
+        <v>1.19</v>
+      </c>
+      <c r="AW140">
+        <v>2.88</v>
+      </c>
+      <c r="AX140">
+        <v>0</v>
+      </c>
+      <c r="AY140">
+        <v>0</v>
+      </c>
+      <c r="AZ140">
+        <v>0</v>
+      </c>
+      <c r="BA140">
+        <v>0</v>
+      </c>
+      <c r="BB140">
+        <v>0</v>
+      </c>
+      <c r="BC140">
+        <v>0</v>
+      </c>
+      <c r="BD140">
+        <v>0</v>
+      </c>
+      <c r="BE140">
+        <v>0</v>
+      </c>
+      <c r="BF140">
+        <v>4</v>
+      </c>
+      <c r="BG140">
+        <v>0</v>
+      </c>
+      <c r="BH140">
+        <v>2</v>
+      </c>
+      <c r="BI140">
+        <v>3</v>
+      </c>
+      <c r="BJ140">
+        <v>6</v>
+      </c>
+      <c r="BK140">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:63">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>4342358</v>
+      </c>
+      <c r="C141" t="s">
+        <v>63</v>
+      </c>
+      <c r="D141" t="s">
+        <v>64</v>
+      </c>
+      <c r="E141" s="2">
+        <v>44996.47916666666</v>
+      </c>
+      <c r="F141">
+        <v>18</v>
+      </c>
+      <c r="G141" t="s">
+        <v>76</v>
+      </c>
+      <c r="H141" t="s">
+        <v>71</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+      <c r="K141">
+        <v>0</v>
+      </c>
+      <c r="L141">
+        <v>2</v>
+      </c>
+      <c r="M141">
+        <v>0</v>
+      </c>
+      <c r="N141">
+        <v>2</v>
+      </c>
+      <c r="O141" t="s">
+        <v>81</v>
+      </c>
+      <c r="P141" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q141">
+        <v>-1</v>
+      </c>
+      <c r="R141">
+        <v>-1</v>
+      </c>
+      <c r="S141">
+        <v>-1</v>
+      </c>
+      <c r="T141">
+        <v>0</v>
+      </c>
+      <c r="U141">
+        <v>0</v>
+      </c>
+      <c r="V141">
+        <v>0</v>
+      </c>
+      <c r="W141">
+        <v>0</v>
+      </c>
+      <c r="X141">
+        <v>0</v>
+      </c>
+      <c r="Y141">
+        <v>0</v>
+      </c>
+      <c r="Z141">
+        <v>0</v>
+      </c>
+      <c r="AA141">
+        <v>0</v>
+      </c>
+      <c r="AB141">
+        <v>0</v>
+      </c>
+      <c r="AC141">
+        <v>0</v>
+      </c>
+      <c r="AD141">
+        <v>0</v>
+      </c>
+      <c r="AE141">
+        <v>0</v>
+      </c>
+      <c r="AF141">
+        <v>0</v>
+      </c>
+      <c r="AG141">
+        <v>0</v>
+      </c>
+      <c r="AH141">
+        <v>0</v>
+      </c>
+      <c r="AI141">
+        <v>0</v>
+      </c>
+      <c r="AJ141">
+        <v>0</v>
+      </c>
+      <c r="AK141">
+        <v>0</v>
+      </c>
+      <c r="AL141">
+        <v>0</v>
+      </c>
+      <c r="AM141">
+        <v>0</v>
+      </c>
+      <c r="AN141">
+        <v>0</v>
+      </c>
+      <c r="AO141">
+        <v>0</v>
+      </c>
+      <c r="AP141">
+        <v>0</v>
+      </c>
+      <c r="AQ141">
+        <v>2</v>
+      </c>
+      <c r="AR141">
+        <v>2</v>
+      </c>
+      <c r="AS141">
+        <v>2.11</v>
+      </c>
+      <c r="AT141">
+        <v>1.78</v>
+      </c>
+      <c r="AU141">
+        <v>1.59</v>
+      </c>
+      <c r="AV141">
+        <v>1.4</v>
+      </c>
+      <c r="AW141">
+        <v>2.99</v>
+      </c>
+      <c r="AX141">
+        <v>0</v>
+      </c>
+      <c r="AY141">
+        <v>0</v>
+      </c>
+      <c r="AZ141">
+        <v>0</v>
+      </c>
+      <c r="BA141">
+        <v>0</v>
+      </c>
+      <c r="BB141">
+        <v>0</v>
+      </c>
+      <c r="BC141">
+        <v>0</v>
+      </c>
+      <c r="BD141">
+        <v>0</v>
+      </c>
+      <c r="BE141">
+        <v>0</v>
+      </c>
+      <c r="BF141">
+        <v>-1</v>
+      </c>
+      <c r="BG141">
+        <v>-1</v>
+      </c>
+      <c r="BH141">
+        <v>-1</v>
+      </c>
+      <c r="BI141">
+        <v>-1</v>
+      </c>
+      <c r="BJ141">
+        <v>-1</v>
+      </c>
+      <c r="BK141">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:63">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>4342354</v>
+      </c>
+      <c r="C142" t="s">
+        <v>63</v>
+      </c>
+      <c r="D142" t="s">
+        <v>64</v>
+      </c>
+      <c r="E142" s="2">
+        <v>44996.47916666666</v>
+      </c>
+      <c r="F142">
+        <v>18</v>
+      </c>
+      <c r="G142" t="s">
+        <v>74</v>
+      </c>
+      <c r="H142" t="s">
+        <v>67</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
+      <c r="K142">
+        <v>0</v>
+      </c>
+      <c r="L142">
+        <v>2</v>
+      </c>
+      <c r="M142">
+        <v>0</v>
+      </c>
+      <c r="N142">
+        <v>2</v>
+      </c>
+      <c r="O142" t="s">
+        <v>81</v>
+      </c>
+      <c r="P142" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q142">
+        <v>6</v>
+      </c>
+      <c r="R142">
+        <v>1</v>
+      </c>
+      <c r="S142">
+        <v>7</v>
+      </c>
+      <c r="T142">
+        <v>2.2</v>
+      </c>
+      <c r="U142">
+        <v>2.3</v>
+      </c>
+      <c r="V142">
+        <v>4.33</v>
+      </c>
+      <c r="W142">
+        <v>0</v>
+      </c>
+      <c r="X142">
+        <v>0</v>
+      </c>
+      <c r="Y142">
+        <v>0</v>
+      </c>
+      <c r="Z142">
+        <v>0</v>
+      </c>
+      <c r="AA142">
+        <v>0</v>
+      </c>
+      <c r="AB142">
+        <v>0</v>
+      </c>
+      <c r="AC142">
+        <v>1.73</v>
+      </c>
+      <c r="AD142">
+        <v>3.4</v>
+      </c>
+      <c r="AE142">
+        <v>4.2</v>
+      </c>
+      <c r="AF142">
+        <v>0</v>
+      </c>
+      <c r="AG142">
+        <v>0</v>
+      </c>
+      <c r="AH142">
+        <v>0</v>
+      </c>
+      <c r="AI142">
+        <v>0</v>
+      </c>
+      <c r="AJ142">
+        <v>1.6</v>
+      </c>
+      <c r="AK142">
+        <v>2.3</v>
+      </c>
+      <c r="AL142">
+        <v>0</v>
+      </c>
+      <c r="AM142">
+        <v>0</v>
+      </c>
+      <c r="AN142">
+        <v>0</v>
+      </c>
+      <c r="AO142">
+        <v>0</v>
+      </c>
+      <c r="AP142">
+        <v>0</v>
+      </c>
+      <c r="AQ142">
+        <v>1.5</v>
+      </c>
+      <c r="AR142">
+        <v>0.57</v>
+      </c>
+      <c r="AS142">
+        <v>1.67</v>
+      </c>
+      <c r="AT142">
+        <v>0.5</v>
+      </c>
+      <c r="AU142">
+        <v>1.74</v>
+      </c>
+      <c r="AV142">
+        <v>1.53</v>
+      </c>
+      <c r="AW142">
+        <v>3.27</v>
+      </c>
+      <c r="AX142">
+        <v>0</v>
+      </c>
+      <c r="AY142">
+        <v>0</v>
+      </c>
+      <c r="AZ142">
+        <v>0</v>
+      </c>
+      <c r="BA142">
+        <v>0</v>
+      </c>
+      <c r="BB142">
+        <v>0</v>
+      </c>
+      <c r="BC142">
+        <v>0</v>
+      </c>
+      <c r="BD142">
+        <v>0</v>
+      </c>
+      <c r="BE142">
+        <v>0</v>
+      </c>
+      <c r="BF142">
+        <v>2</v>
+      </c>
+      <c r="BG142">
+        <v>2</v>
+      </c>
+      <c r="BH142">
+        <v>4</v>
+      </c>
+      <c r="BI142">
+        <v>6</v>
+      </c>
+      <c r="BJ142">
+        <v>6</v>
+      </c>
+      <c r="BK142">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143" spans="1:63">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>4342355</v>
+      </c>
+      <c r="C143" t="s">
+        <v>63</v>
+      </c>
+      <c r="D143" t="s">
+        <v>64</v>
+      </c>
+      <c r="E143" s="2">
+        <v>44996.47916666666</v>
+      </c>
+      <c r="F143">
+        <v>18</v>
+      </c>
+      <c r="G143" t="s">
+        <v>68</v>
+      </c>
+      <c r="H143" t="s">
+        <v>72</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+      <c r="J143">
+        <v>0</v>
+      </c>
+      <c r="K143">
+        <v>0</v>
+      </c>
+      <c r="L143">
+        <v>0</v>
+      </c>
+      <c r="M143">
+        <v>2</v>
+      </c>
+      <c r="N143">
+        <v>2</v>
+      </c>
+      <c r="O143" t="s">
+        <v>82</v>
+      </c>
+      <c r="P143" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q143">
+        <v>3</v>
+      </c>
+      <c r="R143">
+        <v>3</v>
+      </c>
+      <c r="S143">
+        <v>6</v>
+      </c>
+      <c r="T143">
+        <v>3.1</v>
+      </c>
+      <c r="U143">
+        <v>2.25</v>
+      </c>
+      <c r="V143">
+        <v>2.88</v>
+      </c>
+      <c r="W143">
+        <v>0</v>
+      </c>
+      <c r="X143">
+        <v>0</v>
+      </c>
+      <c r="Y143">
+        <v>0</v>
+      </c>
+      <c r="Z143">
+        <v>0</v>
+      </c>
+      <c r="AA143">
+        <v>0</v>
+      </c>
+      <c r="AB143">
+        <v>0</v>
+      </c>
+      <c r="AC143">
+        <v>2.63</v>
+      </c>
+      <c r="AD143">
+        <v>3.4</v>
+      </c>
+      <c r="AE143">
+        <v>2.25</v>
+      </c>
+      <c r="AF143">
+        <v>0</v>
+      </c>
+      <c r="AG143">
+        <v>0</v>
+      </c>
+      <c r="AH143">
+        <v>0</v>
+      </c>
+      <c r="AI143">
+        <v>0</v>
+      </c>
+      <c r="AJ143">
+        <v>1.65</v>
+      </c>
+      <c r="AK143">
+        <v>2.2</v>
+      </c>
+      <c r="AL143">
+        <v>1.5</v>
+      </c>
+      <c r="AM143">
+        <v>2.5</v>
+      </c>
+      <c r="AN143">
+        <v>1.35</v>
+      </c>
+      <c r="AO143">
+        <v>1.22</v>
+      </c>
+      <c r="AP143">
+        <v>1.73</v>
+      </c>
+      <c r="AQ143">
+        <v>1.13</v>
+      </c>
+      <c r="AR143">
+        <v>1.25</v>
+      </c>
+      <c r="AS143">
+        <v>1</v>
+      </c>
+      <c r="AT143">
+        <v>1.44</v>
+      </c>
+      <c r="AU143">
+        <v>2.3</v>
+      </c>
+      <c r="AV143">
+        <v>1.33</v>
+      </c>
+      <c r="AW143">
+        <v>3.63</v>
+      </c>
+      <c r="AX143">
+        <v>0</v>
+      </c>
+      <c r="AY143">
+        <v>0</v>
+      </c>
+      <c r="AZ143">
+        <v>0</v>
+      </c>
+      <c r="BA143">
+        <v>0</v>
+      </c>
+      <c r="BB143">
+        <v>0</v>
+      </c>
+      <c r="BC143">
+        <v>0</v>
+      </c>
+      <c r="BD143">
+        <v>0</v>
+      </c>
+      <c r="BE143">
+        <v>0</v>
+      </c>
+      <c r="BF143">
+        <v>4</v>
+      </c>
+      <c r="BG143">
+        <v>4</v>
+      </c>
+      <c r="BH143">
+        <v>7</v>
+      </c>
+      <c r="BI143">
+        <v>0</v>
+      </c>
+      <c r="BJ143">
+        <v>11</v>
+      </c>
+      <c r="BK143">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:63">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>4342357</v>
+      </c>
+      <c r="C144" t="s">
+        <v>63</v>
+      </c>
+      <c r="D144" t="s">
+        <v>64</v>
+      </c>
+      <c r="E144" s="2">
+        <v>44996.47916666666</v>
+      </c>
+      <c r="F144">
+        <v>18</v>
+      </c>
+      <c r="G144" t="s">
+        <v>80</v>
+      </c>
+      <c r="H144" t="s">
+        <v>65</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="K144">
+        <v>0</v>
+      </c>
+      <c r="L144">
+        <v>3</v>
+      </c>
+      <c r="M144">
+        <v>0</v>
+      </c>
+      <c r="N144">
+        <v>3</v>
+      </c>
+      <c r="O144" t="s">
+        <v>83</v>
+      </c>
+      <c r="P144" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q144">
+        <v>8</v>
+      </c>
+      <c r="R144">
+        <v>0</v>
+      </c>
+      <c r="S144">
+        <v>8</v>
+      </c>
+      <c r="T144">
+        <v>1.57</v>
+      </c>
+      <c r="U144">
+        <v>2.75</v>
+      </c>
+      <c r="V144">
+        <v>9</v>
+      </c>
+      <c r="W144">
+        <v>0</v>
+      </c>
+      <c r="X144">
+        <v>0</v>
+      </c>
+      <c r="Y144">
+        <v>2</v>
+      </c>
+      <c r="Z144">
+        <v>1.6</v>
+      </c>
+      <c r="AA144">
+        <v>0</v>
+      </c>
+      <c r="AB144">
+        <v>0</v>
+      </c>
+      <c r="AC144">
+        <v>1.2</v>
+      </c>
+      <c r="AD144">
+        <v>5.5</v>
+      </c>
+      <c r="AE144">
+        <v>10</v>
+      </c>
+      <c r="AF144">
+        <v>0</v>
+      </c>
+      <c r="AG144">
+        <v>0</v>
+      </c>
+      <c r="AH144">
+        <v>0</v>
+      </c>
+      <c r="AI144">
+        <v>0</v>
+      </c>
+      <c r="AJ144">
+        <v>1.4</v>
+      </c>
+      <c r="AK144">
+        <v>2.88</v>
+      </c>
+      <c r="AL144">
+        <v>1.85</v>
+      </c>
+      <c r="AM144">
+        <v>1.85</v>
+      </c>
+      <c r="AN144">
+        <v>1.02</v>
+      </c>
+      <c r="AO144">
+        <v>1.08</v>
+      </c>
+      <c r="AP144">
+        <v>4.6</v>
+      </c>
+      <c r="AQ144">
+        <v>1.63</v>
+      </c>
+      <c r="AR144">
+        <v>0.88</v>
+      </c>
+      <c r="AS144">
+        <v>1.78</v>
+      </c>
+      <c r="AT144">
+        <v>0.78</v>
+      </c>
+      <c r="AU144">
+        <v>1.84</v>
+      </c>
+      <c r="AV144">
+        <v>1.21</v>
+      </c>
+      <c r="AW144">
+        <v>3.05</v>
+      </c>
+      <c r="AX144">
+        <v>0</v>
+      </c>
+      <c r="AY144">
+        <v>0</v>
+      </c>
+      <c r="AZ144">
+        <v>0</v>
+      </c>
+      <c r="BA144">
+        <v>0</v>
+      </c>
+      <c r="BB144">
+        <v>0</v>
+      </c>
+      <c r="BC144">
+        <v>0</v>
+      </c>
+      <c r="BD144">
+        <v>0</v>
+      </c>
+      <c r="BE144">
+        <v>0</v>
+      </c>
+      <c r="BF144">
+        <v>8</v>
+      </c>
+      <c r="BG144">
+        <v>0</v>
+      </c>
+      <c r="BH144">
+        <v>7</v>
+      </c>
+      <c r="BI144">
+        <v>2</v>
+      </c>
+      <c r="BJ144">
+        <v>15</v>
+      </c>
+      <c r="BK144">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:63">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>4342359</v>
+      </c>
+      <c r="C145" t="s">
+        <v>63</v>
+      </c>
+      <c r="D145" t="s">
+        <v>64</v>
+      </c>
+      <c r="E145" s="2">
+        <v>44996.47916666666</v>
+      </c>
+      <c r="F145">
+        <v>18</v>
+      </c>
+      <c r="G145" t="s">
+        <v>75</v>
+      </c>
+      <c r="H145" t="s">
+        <v>79</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <v>0</v>
+      </c>
+      <c r="L145">
+        <v>1</v>
+      </c>
+      <c r="M145">
+        <v>2</v>
+      </c>
+      <c r="N145">
+        <v>3</v>
+      </c>
+      <c r="O145" t="s">
+        <v>84</v>
+      </c>
+      <c r="P145" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q145">
+        <v>-1</v>
+      </c>
+      <c r="R145">
+        <v>-1</v>
+      </c>
+      <c r="S145">
+        <v>-1</v>
+      </c>
+      <c r="T145">
+        <v>0</v>
+      </c>
+      <c r="U145">
+        <v>0</v>
+      </c>
+      <c r="V145">
+        <v>0</v>
+      </c>
+      <c r="W145">
+        <v>0</v>
+      </c>
+      <c r="X145">
+        <v>0</v>
+      </c>
+      <c r="Y145">
+        <v>0</v>
+      </c>
+      <c r="Z145">
+        <v>0</v>
+      </c>
+      <c r="AA145">
+        <v>0</v>
+      </c>
+      <c r="AB145">
+        <v>0</v>
+      </c>
+      <c r="AC145">
+        <v>0</v>
+      </c>
+      <c r="AD145">
+        <v>0</v>
+      </c>
+      <c r="AE145">
+        <v>0</v>
+      </c>
+      <c r="AF145">
+        <v>0</v>
+      </c>
+      <c r="AG145">
+        <v>0</v>
+      </c>
+      <c r="AH145">
+        <v>0</v>
+      </c>
+      <c r="AI145">
+        <v>0</v>
+      </c>
+      <c r="AJ145">
+        <v>0</v>
+      </c>
+      <c r="AK145">
+        <v>0</v>
+      </c>
+      <c r="AL145">
+        <v>0</v>
+      </c>
+      <c r="AM145">
+        <v>0</v>
+      </c>
+      <c r="AN145">
+        <v>0</v>
+      </c>
+      <c r="AO145">
+        <v>0</v>
+      </c>
+      <c r="AP145">
+        <v>0</v>
+      </c>
+      <c r="AQ145">
+        <v>2</v>
+      </c>
+      <c r="AR145">
+        <v>1.5</v>
+      </c>
+      <c r="AS145">
+        <v>1.78</v>
+      </c>
+      <c r="AT145">
+        <v>1.67</v>
+      </c>
+      <c r="AU145">
+        <v>1.65</v>
+      </c>
+      <c r="AV145">
+        <v>1.5</v>
+      </c>
+      <c r="AW145">
+        <v>3.15</v>
+      </c>
+      <c r="AX145">
+        <v>0</v>
+      </c>
+      <c r="AY145">
+        <v>0</v>
+      </c>
+      <c r="AZ145">
+        <v>0</v>
+      </c>
+      <c r="BA145">
+        <v>0</v>
+      </c>
+      <c r="BB145">
+        <v>0</v>
+      </c>
+      <c r="BC145">
+        <v>0</v>
+      </c>
+      <c r="BD145">
+        <v>0</v>
+      </c>
+      <c r="BE145">
+        <v>0</v>
+      </c>
+      <c r="BF145">
+        <v>-1</v>
+      </c>
+      <c r="BG145">
+        <v>-1</v>
+      </c>
+      <c r="BH145">
+        <v>-1</v>
+      </c>
+      <c r="BI145">
+        <v>-1</v>
+      </c>
+      <c r="BJ145">
+        <v>-1</v>
+      </c>
+      <c r="BK145">
         <v>-1</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Croatia Second NL_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Croatia Second NL_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK145"/>
+  <dimension ref="A1:BK147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>0.22</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT3" t="n">
         <v>1.11</v>
@@ -1309,7 +1309,7 @@
         <v>1.4</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT10" t="n">
         <v>0.67</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT20" t="n">
         <v>1.33</v>
@@ -4760,7 +4760,7 @@
         <v>1.33</v>
       </c>
       <c r="AT21" t="n">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -5166,7 +5166,7 @@
         <v>1.89</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU23" t="n">
         <v>0</v>
@@ -7396,7 +7396,7 @@
         <v>0.5</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT34" t="n">
         <v>1.11</v>
@@ -7602,7 +7602,7 @@
         <v>0.22</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU35" t="n">
         <v>1.58</v>
@@ -7802,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT36" t="n">
         <v>0.33</v>
@@ -8414,7 +8414,7 @@
         <v>1.78</v>
       </c>
       <c r="AT39" t="n">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AU39" t="n">
         <v>0</v>
@@ -10038,7 +10038,7 @@
         <v>1.67</v>
       </c>
       <c r="AT47" t="n">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AU47" t="n">
         <v>0</v>
@@ -10847,7 +10847,7 @@
         <v>1</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT51" t="n">
         <v>1.44</v>
@@ -11256,7 +11256,7 @@
         <v>1.33</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU53" t="n">
         <v>1.42</v>
@@ -12065,7 +12065,7 @@
         <v>0</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT57" t="n">
         <v>0.3</v>
@@ -12677,7 +12677,7 @@
         <v>1.78</v>
       </c>
       <c r="AT60" t="n">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AU60" t="n">
         <v>1.41</v>
@@ -13892,7 +13892,7 @@
         <v>1.75</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT66" t="n">
         <v>1.22</v>
@@ -14298,7 +14298,7 @@
         <v>0</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT68" t="n">
         <v>0.33</v>
@@ -15113,7 +15113,7 @@
         <v>1.78</v>
       </c>
       <c r="AT72" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU72" t="n">
         <v>1.69</v>
@@ -15516,7 +15516,7 @@
         <v>0.25</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT74" t="n">
         <v>0.78</v>
@@ -15925,7 +15925,7 @@
         <v>1.22</v>
       </c>
       <c r="AT76" t="n">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AU76" t="n">
         <v>1.58</v>
@@ -17343,7 +17343,7 @@
         <v>1.25</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT83" t="n">
         <v>1.44</v>
@@ -17955,7 +17955,7 @@
         <v>2.11</v>
       </c>
       <c r="AT86" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU86" t="n">
         <v>1.81</v>
@@ -18764,7 +18764,7 @@
         <v>0.6</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT90" t="n">
         <v>0.33</v>
@@ -19579,7 +19579,7 @@
         <v>1.4</v>
       </c>
       <c r="AT94" t="n">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AU94" t="n">
         <v>1.7</v>
@@ -20388,7 +20388,7 @@
         <v>2</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT98" t="n">
         <v>2</v>
@@ -21000,7 +21000,7 @@
         <v>1.88</v>
       </c>
       <c r="AT101" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU101" t="n">
         <v>2.09</v>
@@ -22012,7 +22012,7 @@
         <v>1.57</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT106" t="n">
         <v>1.33</v>
@@ -22421,7 +22421,7 @@
         <v>1.67</v>
       </c>
       <c r="AT108" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU108" t="n">
         <v>1.77</v>
@@ -23030,7 +23030,7 @@
         <v>1.89</v>
       </c>
       <c r="AT111" t="n">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AU111" t="n">
         <v>1.58</v>
@@ -23636,7 +23636,7 @@
         <v>2</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT114" t="n">
         <v>1.78</v>
@@ -25463,7 +25463,7 @@
         <v>0.43</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT123" t="n">
         <v>0.33</v>
@@ -26884,7 +26884,7 @@
         <v>1.38</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT130" t="n">
         <v>1.22</v>
@@ -27090,7 +27090,7 @@
         <v>2.56</v>
       </c>
       <c r="AT131" t="n">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AU131" t="n">
         <v>2.59</v>
@@ -27902,7 +27902,7 @@
         <v>1.56</v>
       </c>
       <c r="AT135" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU135" t="n">
         <v>1.48</v>
@@ -28508,7 +28508,7 @@
         <v>0.33</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT138" t="n">
         <v>0.3</v>
@@ -29984,6 +29984,412 @@
       </c>
       <c r="BK145" t="n">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B146" t="n">
+        <v>4342362</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Croatia Second NL</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E146" s="2" t="n">
+        <v>45002.47916666666</v>
+      </c>
+      <c r="F146" t="n">
+        <v>19</v>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>Zrinski Jurjevac</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Grobničan Čavle</t>
+        </is>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="n">
+        <v>0</v>
+      </c>
+      <c r="L146" t="n">
+        <v>2</v>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="n">
+        <v>3</v>
+      </c>
+      <c r="O146" t="inlineStr">
+        <is>
+          <t>['-1', '-1']</t>
+        </is>
+      </c>
+      <c r="P146" t="inlineStr">
+        <is>
+          <t>['-1']</t>
+        </is>
+      </c>
+      <c r="Q146" t="n">
+        <v>15</v>
+      </c>
+      <c r="R146" t="n">
+        <v>5</v>
+      </c>
+      <c r="S146" t="n">
+        <v>20</v>
+      </c>
+      <c r="T146" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U146" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V146" t="n">
+        <v>6</v>
+      </c>
+      <c r="W146" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X146" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="Y146" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Z146" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AA146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC146" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD146" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE146" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH146" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI146" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AJ146" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK146" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL146" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AM146" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN146" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AO146" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AP146" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AQ146" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR146" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AS146" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AT146" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU146" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AV146" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AW146" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="AX146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF146" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG146" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH146" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI146" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ146" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK146" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B147" t="n">
+        <v>4342360</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Croatia Second NL</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E147" s="2" t="n">
+        <v>45002.47916666666</v>
+      </c>
+      <c r="F147" t="n">
+        <v>19</v>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>Opatija</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>Sesvete</t>
+        </is>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="n">
+        <v>0</v>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="n">
+        <v>0</v>
+      </c>
+      <c r="N147" t="n">
+        <v>1</v>
+      </c>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>['-1']</t>
+        </is>
+      </c>
+      <c r="P147" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q147" t="n">
+        <v>5</v>
+      </c>
+      <c r="R147" t="n">
+        <v>7</v>
+      </c>
+      <c r="S147" t="n">
+        <v>12</v>
+      </c>
+      <c r="T147" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U147" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V147" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W147" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X147" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y147" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z147" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AA147" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB147" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC147" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AD147" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE147" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AF147" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG147" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH147" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI147" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AJ147" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK147" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL147" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AM147" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AN147" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO147" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP147" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AQ147" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AR147" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AS147" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AT147" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AU147" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AV147" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AW147" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AX147" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY147" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ147" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA147" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB147" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC147" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD147" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE147" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF147" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG147" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH147" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI147" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ147" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK147" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Croatia Second NL_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Croatia Second NL_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="89">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -642,7 +642,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK152"/>
+  <dimension ref="A1:BK153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2310,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT9">
         <v>0.55</v>
@@ -2695,7 +2695,7 @@
         <v>1</v>
       </c>
       <c r="AT11">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -5175,7 +5175,7 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT24">
         <v>0.4</v>
@@ -7661,7 +7661,7 @@
         <v>1.8</v>
       </c>
       <c r="AT37">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU37">
         <v>0</v>
@@ -8231,7 +8231,7 @@
         <v>2</v>
       </c>
       <c r="AS40">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT40">
         <v>1.4</v>
@@ -9950,7 +9950,7 @@
         <v>0.5</v>
       </c>
       <c r="AS49">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT49">
         <v>1.67</v>
@@ -10144,7 +10144,7 @@
         <v>0.2</v>
       </c>
       <c r="AT50">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU50">
         <v>1.61</v>
@@ -11860,7 +11860,7 @@
         <v>0.33</v>
       </c>
       <c r="AS59">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT59">
         <v>0.78</v>
@@ -13964,7 +13964,7 @@
         <v>1.2</v>
       </c>
       <c r="AT70">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU70">
         <v>1.42</v>
@@ -15680,7 +15680,7 @@
         <v>0.75</v>
       </c>
       <c r="AS79">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT79">
         <v>0.33</v>
@@ -16829,7 +16829,7 @@
         <v>1.6</v>
       </c>
       <c r="AT85">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU85">
         <v>1.69</v>
@@ -18736,7 +18736,7 @@
         <v>1.33</v>
       </c>
       <c r="AS95">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT95">
         <v>1.33</v>
@@ -20076,7 +20076,7 @@
         <v>2.11</v>
       </c>
       <c r="AT102">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU102">
         <v>1.59</v>
@@ -21601,7 +21601,7 @@
         <v>0.86</v>
       </c>
       <c r="AS110">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT110">
         <v>1.3</v>
@@ -24278,7 +24278,7 @@
         <v>1.22</v>
       </c>
       <c r="AT124">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU124">
         <v>1.63</v>
@@ -26376,7 +26376,7 @@
         <v>0.5</v>
       </c>
       <c r="AS135">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT135">
         <v>0.5</v>
@@ -27716,7 +27716,7 @@
         <v>1.67</v>
       </c>
       <c r="AT142">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU142">
         <v>1.74</v>
@@ -29678,6 +29678,197 @@
       </c>
       <c r="BK152">
         <v>5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:63">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>4342367</v>
+      </c>
+      <c r="C153" t="s">
+        <v>63</v>
+      </c>
+      <c r="D153" t="s">
+        <v>64</v>
+      </c>
+      <c r="E153" s="2">
+        <v>45005.47916666666</v>
+      </c>
+      <c r="F153">
+        <v>19</v>
+      </c>
+      <c r="G153" t="s">
+        <v>72</v>
+      </c>
+      <c r="H153" t="s">
+        <v>67</v>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="J153">
+        <v>0</v>
+      </c>
+      <c r="K153">
+        <v>0</v>
+      </c>
+      <c r="L153">
+        <v>3</v>
+      </c>
+      <c r="M153">
+        <v>0</v>
+      </c>
+      <c r="N153">
+        <v>3</v>
+      </c>
+      <c r="O153" t="s">
+        <v>83</v>
+      </c>
+      <c r="P153" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q153">
+        <v>-1</v>
+      </c>
+      <c r="R153">
+        <v>-1</v>
+      </c>
+      <c r="S153">
+        <v>-1</v>
+      </c>
+      <c r="T153">
+        <v>2.05</v>
+      </c>
+      <c r="U153">
+        <v>2.25</v>
+      </c>
+      <c r="V153">
+        <v>5.5</v>
+      </c>
+      <c r="W153">
+        <v>1.33</v>
+      </c>
+      <c r="X153">
+        <v>3</v>
+      </c>
+      <c r="Y153">
+        <v>2.59</v>
+      </c>
+      <c r="Z153">
+        <v>1.44</v>
+      </c>
+      <c r="AA153">
+        <v>0</v>
+      </c>
+      <c r="AB153">
+        <v>0</v>
+      </c>
+      <c r="AC153">
+        <v>1.5</v>
+      </c>
+      <c r="AD153">
+        <v>3.8</v>
+      </c>
+      <c r="AE153">
+        <v>5.5</v>
+      </c>
+      <c r="AF153">
+        <v>0</v>
+      </c>
+      <c r="AG153">
+        <v>0</v>
+      </c>
+      <c r="AH153">
+        <v>1.25</v>
+      </c>
+      <c r="AI153">
+        <v>3.6</v>
+      </c>
+      <c r="AJ153">
+        <v>1.8</v>
+      </c>
+      <c r="AK153">
+        <v>2</v>
+      </c>
+      <c r="AL153">
+        <v>1.85</v>
+      </c>
+      <c r="AM153">
+        <v>1.85</v>
+      </c>
+      <c r="AN153">
+        <v>1.11</v>
+      </c>
+      <c r="AO153">
+        <v>1.19</v>
+      </c>
+      <c r="AP153">
+        <v>2.47</v>
+      </c>
+      <c r="AQ153">
+        <v>1.56</v>
+      </c>
+      <c r="AR153">
+        <v>0.5</v>
+      </c>
+      <c r="AS153">
+        <v>1.7</v>
+      </c>
+      <c r="AT153">
+        <v>0.44</v>
+      </c>
+      <c r="AU153">
+        <v>1.48</v>
+      </c>
+      <c r="AV153">
+        <v>1.53</v>
+      </c>
+      <c r="AW153">
+        <v>3.01</v>
+      </c>
+      <c r="AX153">
+        <v>0</v>
+      </c>
+      <c r="AY153">
+        <v>0</v>
+      </c>
+      <c r="AZ153">
+        <v>0</v>
+      </c>
+      <c r="BA153">
+        <v>0</v>
+      </c>
+      <c r="BB153">
+        <v>0</v>
+      </c>
+      <c r="BC153">
+        <v>0</v>
+      </c>
+      <c r="BD153">
+        <v>0</v>
+      </c>
+      <c r="BE153">
+        <v>0</v>
+      </c>
+      <c r="BF153">
+        <v>-1</v>
+      </c>
+      <c r="BG153">
+        <v>-1</v>
+      </c>
+      <c r="BH153">
+        <v>-1</v>
+      </c>
+      <c r="BI153">
+        <v>-1</v>
+      </c>
+      <c r="BJ153">
+        <v>-1</v>
+      </c>
+      <c r="BK153">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Croatia Second NL_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Croatia Second NL_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="89">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -642,7 +642,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK153"/>
+  <dimension ref="A1:BK159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1355,7 +1355,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT4">
         <v>0.5</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT5">
         <v>1.4</v>
@@ -1931,7 +1931,7 @@
         <v>1.2</v>
       </c>
       <c r="AT7">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2692,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT11">
         <v>0.44</v>
@@ -2886,7 +2886,7 @@
         <v>1.89</v>
       </c>
       <c r="AT12">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>1.67</v>
       </c>
       <c r="AT13">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3268,7 +3268,7 @@
         <v>1.6</v>
       </c>
       <c r="AT14">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -3456,10 +3456,10 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AT15">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -3647,10 +3647,10 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT16">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -3838,7 +3838,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT17">
         <v>1.44</v>
@@ -4029,10 +4029,10 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT18">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -5366,7 +5366,7 @@
         <v>1</v>
       </c>
       <c r="AS25">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT25">
         <v>1.4</v>
@@ -5560,7 +5560,7 @@
         <v>1.89</v>
       </c>
       <c r="AT26">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AU26">
         <v>1.19</v>
@@ -5748,10 +5748,10 @@
         <v>3</v>
       </c>
       <c r="AS27">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT27">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU27">
         <v>0</v>
@@ -6130,10 +6130,10 @@
         <v>0</v>
       </c>
       <c r="AS29">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT29">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU29">
         <v>0</v>
@@ -6321,10 +6321,10 @@
         <v>0</v>
       </c>
       <c r="AS30">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AT30">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU30">
         <v>1.81</v>
@@ -6512,10 +6512,10 @@
         <v>1</v>
       </c>
       <c r="AS31">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT31">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU31">
         <v>1.97</v>
@@ -6703,7 +6703,7 @@
         <v>1</v>
       </c>
       <c r="AS32">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT32">
         <v>1.44</v>
@@ -6894,10 +6894,10 @@
         <v>3</v>
       </c>
       <c r="AS33">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT33">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AU33">
         <v>1.89</v>
@@ -8613,10 +8613,10 @@
         <v>3</v>
       </c>
       <c r="AS42">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT42">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AU42">
         <v>1.71</v>
@@ -8804,10 +8804,10 @@
         <v>0</v>
       </c>
       <c r="AS43">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT43">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU43">
         <v>0</v>
@@ -8995,10 +8995,10 @@
         <v>2</v>
       </c>
       <c r="AS44">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT44">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU44">
         <v>1.89</v>
@@ -9186,10 +9186,10 @@
         <v>0</v>
       </c>
       <c r="AS45">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT45">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU45">
         <v>1.97</v>
@@ -9377,10 +9377,10 @@
         <v>0.67</v>
       </c>
       <c r="AS46">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT46">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AU46">
         <v>0</v>
@@ -9759,7 +9759,7 @@
         <v>1.33</v>
       </c>
       <c r="AS48">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AT48">
         <v>1.33</v>
@@ -9953,7 +9953,7 @@
         <v>1.7</v>
       </c>
       <c r="AT49">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU49">
         <v>2.14</v>
@@ -11672,7 +11672,7 @@
         <v>1.8</v>
       </c>
       <c r="AT58">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AU58">
         <v>1.61</v>
@@ -11863,7 +11863,7 @@
         <v>1.7</v>
       </c>
       <c r="AT59">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU59">
         <v>1.45</v>
@@ -12051,7 +12051,7 @@
         <v>2.5</v>
       </c>
       <c r="AS60">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT60">
         <v>2.1</v>
@@ -12242,10 +12242,10 @@
         <v>2.33</v>
       </c>
       <c r="AS61">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT61">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU61">
         <v>1.65</v>
@@ -12433,7 +12433,7 @@
         <v>1</v>
       </c>
       <c r="AS62">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT62">
         <v>1.33</v>
@@ -12624,10 +12624,10 @@
         <v>0.5</v>
       </c>
       <c r="AS63">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT63">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AU63">
         <v>1.68</v>
@@ -12815,10 +12815,10 @@
         <v>0</v>
       </c>
       <c r="AS64">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT64">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU64">
         <v>2.12</v>
@@ -13391,7 +13391,7 @@
         <v>0.2</v>
       </c>
       <c r="AT67">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU67">
         <v>1.59</v>
@@ -14534,7 +14534,7 @@
         <v>0.4</v>
       </c>
       <c r="AS73">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AT73">
         <v>0.6</v>
@@ -14728,7 +14728,7 @@
         <v>1.8</v>
       </c>
       <c r="AT74">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU74">
         <v>1.77</v>
@@ -14916,7 +14916,7 @@
         <v>0.6</v>
       </c>
       <c r="AS75">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT75">
         <v>1.3</v>
@@ -15107,7 +15107,7 @@
         <v>2.2</v>
       </c>
       <c r="AS76">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT76">
         <v>2.1</v>
@@ -15298,7 +15298,7 @@
         <v>1</v>
       </c>
       <c r="AS77">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT77">
         <v>1.33</v>
@@ -15489,10 +15489,10 @@
         <v>1</v>
       </c>
       <c r="AS78">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT78">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AU78">
         <v>1.65</v>
@@ -15683,7 +15683,7 @@
         <v>1.7</v>
       </c>
       <c r="AT79">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU79">
         <v>1.36</v>
@@ -15874,7 +15874,7 @@
         <v>1.8</v>
       </c>
       <c r="AT80">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU80">
         <v>1.27</v>
@@ -17017,7 +17017,7 @@
         <v>0.6</v>
       </c>
       <c r="AS86">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AT86">
         <v>0.5</v>
@@ -17208,7 +17208,7 @@
         <v>0.25</v>
       </c>
       <c r="AS87">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT87">
         <v>0.55</v>
@@ -17402,7 +17402,7 @@
         <v>2.6</v>
       </c>
       <c r="AT88">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AU88">
         <v>3.01</v>
@@ -17593,7 +17593,7 @@
         <v>1.2</v>
       </c>
       <c r="AT89">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU89">
         <v>1.41</v>
@@ -17784,7 +17784,7 @@
         <v>1.8</v>
       </c>
       <c r="AT90">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU90">
         <v>1.77</v>
@@ -17975,7 +17975,7 @@
         <v>0.2</v>
       </c>
       <c r="AT91">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU91">
         <v>1.3</v>
@@ -18354,7 +18354,7 @@
         <v>0.5</v>
       </c>
       <c r="AS93">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT93">
         <v>1.3</v>
@@ -18545,7 +18545,7 @@
         <v>2.33</v>
       </c>
       <c r="AS94">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT94">
         <v>2.1</v>
@@ -18930,7 +18930,7 @@
         <v>1.8</v>
       </c>
       <c r="AT96">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AU96">
         <v>1.27</v>
@@ -19118,7 +19118,7 @@
         <v>0.86</v>
       </c>
       <c r="AS97">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT97">
         <v>0.6</v>
@@ -19312,7 +19312,7 @@
         <v>1.9</v>
       </c>
       <c r="AT98">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AU98">
         <v>1.71</v>
@@ -19691,7 +19691,7 @@
         <v>0</v>
       </c>
       <c r="AS100">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT100">
         <v>0.4</v>
@@ -19882,7 +19882,7 @@
         <v>0.5</v>
       </c>
       <c r="AS101">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT101">
         <v>0.5</v>
@@ -20073,7 +20073,7 @@
         <v>0.8</v>
       </c>
       <c r="AS102">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AT102">
         <v>0.44</v>
@@ -20267,7 +20267,7 @@
         <v>1.6</v>
       </c>
       <c r="AT103">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU103">
         <v>1.72</v>
@@ -20649,7 +20649,7 @@
         <v>1.2</v>
       </c>
       <c r="AT105">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU105">
         <v>1.41</v>
@@ -21031,7 +21031,7 @@
         <v>0.2</v>
       </c>
       <c r="AT107">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AU107">
         <v>1.24</v>
@@ -21410,7 +21410,7 @@
         <v>0.33</v>
       </c>
       <c r="AS109">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT109">
         <v>0.55</v>
@@ -21986,7 +21986,7 @@
         <v>2.6</v>
       </c>
       <c r="AT112">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU112">
         <v>3.01</v>
@@ -22174,7 +22174,7 @@
         <v>0.75</v>
       </c>
       <c r="AS113">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT113">
         <v>0.6</v>
@@ -22368,7 +22368,7 @@
         <v>1.9</v>
       </c>
       <c r="AT114">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU114">
         <v>1.89</v>
@@ -22556,7 +22556,7 @@
         <v>0</v>
       </c>
       <c r="AS115">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT115">
         <v>0.4</v>
@@ -22747,10 +22747,10 @@
         <v>1.83</v>
       </c>
       <c r="AS116">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AT116">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU116">
         <v>1.59</v>
@@ -22938,7 +22938,7 @@
         <v>1.33</v>
       </c>
       <c r="AS117">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT117">
         <v>1.44</v>
@@ -23323,7 +23323,7 @@
         <v>1.89</v>
       </c>
       <c r="AT119">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AU119">
         <v>1.8</v>
@@ -23514,7 +23514,7 @@
         <v>1.6</v>
       </c>
       <c r="AT120">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU120">
         <v>1.65</v>
@@ -23702,7 +23702,7 @@
         <v>0.43</v>
       </c>
       <c r="AS121">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT121">
         <v>0.55</v>
@@ -23896,7 +23896,7 @@
         <v>1.89</v>
       </c>
       <c r="AT122">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU122">
         <v>1.69</v>
@@ -24087,7 +24087,7 @@
         <v>1.9</v>
       </c>
       <c r="AT123">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU123">
         <v>1.78</v>
@@ -24275,7 +24275,7 @@
         <v>0.67</v>
       </c>
       <c r="AS124">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT124">
         <v>0.44</v>
@@ -24469,7 +24469,7 @@
         <v>1.6</v>
       </c>
       <c r="AT125">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU125">
         <v>1.65</v>
@@ -24848,7 +24848,7 @@
         <v>1.29</v>
       </c>
       <c r="AS127">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT127">
         <v>1.44</v>
@@ -25039,10 +25039,10 @@
         <v>2</v>
       </c>
       <c r="AS128">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT128">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU128">
         <v>1.84</v>
@@ -25230,10 +25230,10 @@
         <v>2</v>
       </c>
       <c r="AS129">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AT129">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AU129">
         <v>1.59</v>
@@ -25994,10 +25994,10 @@
         <v>1.88</v>
       </c>
       <c r="AS133">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT133">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AU133">
         <v>1.84</v>
@@ -26758,7 +26758,7 @@
         <v>0</v>
       </c>
       <c r="AS137">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT137">
         <v>0.4</v>
@@ -27140,10 +27140,10 @@
         <v>1.75</v>
       </c>
       <c r="AS139">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT139">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU139">
         <v>1.63</v>
@@ -27334,7 +27334,7 @@
         <v>1.89</v>
       </c>
       <c r="AT140">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU140">
         <v>1.69</v>
@@ -27522,10 +27522,10 @@
         <v>2</v>
       </c>
       <c r="AS141">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AT141">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU141">
         <v>1.59</v>
@@ -27904,7 +27904,7 @@
         <v>1.25</v>
       </c>
       <c r="AS143">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT143">
         <v>1.44</v>
@@ -28095,10 +28095,10 @@
         <v>0.88</v>
       </c>
       <c r="AS144">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT144">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU144">
         <v>1.84</v>
@@ -28289,7 +28289,7 @@
         <v>1.6</v>
       </c>
       <c r="AT145">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AU145">
         <v>1.65</v>
@@ -29868,6 +29868,1152 @@
         <v>-1</v>
       </c>
       <c r="BK153">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:63">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>4342372</v>
+      </c>
+      <c r="C154" t="s">
+        <v>63</v>
+      </c>
+      <c r="D154" t="s">
+        <v>64</v>
+      </c>
+      <c r="E154" s="2">
+        <v>45009.47916666666</v>
+      </c>
+      <c r="F154">
+        <v>20</v>
+      </c>
+      <c r="G154" t="s">
+        <v>78</v>
+      </c>
+      <c r="H154" t="s">
+        <v>65</v>
+      </c>
+      <c r="I154">
+        <v>0</v>
+      </c>
+      <c r="J154">
+        <v>0</v>
+      </c>
+      <c r="K154">
+        <v>0</v>
+      </c>
+      <c r="L154">
+        <v>3</v>
+      </c>
+      <c r="M154">
+        <v>1</v>
+      </c>
+      <c r="N154">
+        <v>4</v>
+      </c>
+      <c r="O154" t="s">
+        <v>83</v>
+      </c>
+      <c r="P154" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q154">
+        <v>10</v>
+      </c>
+      <c r="R154">
+        <v>4</v>
+      </c>
+      <c r="S154">
+        <v>14</v>
+      </c>
+      <c r="T154">
+        <v>2.25</v>
+      </c>
+      <c r="U154">
+        <v>2.1</v>
+      </c>
+      <c r="V154">
+        <v>5</v>
+      </c>
+      <c r="W154">
+        <v>0</v>
+      </c>
+      <c r="X154">
+        <v>0</v>
+      </c>
+      <c r="Y154">
+        <v>0</v>
+      </c>
+      <c r="Z154">
+        <v>0</v>
+      </c>
+      <c r="AA154">
+        <v>0</v>
+      </c>
+      <c r="AB154">
+        <v>0</v>
+      </c>
+      <c r="AC154">
+        <v>1.62</v>
+      </c>
+      <c r="AD154">
+        <v>3.75</v>
+      </c>
+      <c r="AE154">
+        <v>4.33</v>
+      </c>
+      <c r="AF154">
+        <v>0</v>
+      </c>
+      <c r="AG154">
+        <v>0</v>
+      </c>
+      <c r="AH154">
+        <v>0</v>
+      </c>
+      <c r="AI154">
+        <v>0</v>
+      </c>
+      <c r="AJ154">
+        <v>2.08</v>
+      </c>
+      <c r="AK154">
+        <v>1.73</v>
+      </c>
+      <c r="AL154">
+        <v>0</v>
+      </c>
+      <c r="AM154">
+        <v>0</v>
+      </c>
+      <c r="AN154">
+        <v>0</v>
+      </c>
+      <c r="AO154">
+        <v>0</v>
+      </c>
+      <c r="AP154">
+        <v>0</v>
+      </c>
+      <c r="AQ154">
+        <v>1.22</v>
+      </c>
+      <c r="AR154">
+        <v>0.78</v>
+      </c>
+      <c r="AS154">
+        <v>1.4</v>
+      </c>
+      <c r="AT154">
+        <v>0.7</v>
+      </c>
+      <c r="AU154">
+        <v>1.63</v>
+      </c>
+      <c r="AV154">
+        <v>1.21</v>
+      </c>
+      <c r="AW154">
+        <v>2.84</v>
+      </c>
+      <c r="AX154">
+        <v>0</v>
+      </c>
+      <c r="AY154">
+        <v>0</v>
+      </c>
+      <c r="AZ154">
+        <v>0</v>
+      </c>
+      <c r="BA154">
+        <v>0</v>
+      </c>
+      <c r="BB154">
+        <v>0</v>
+      </c>
+      <c r="BC154">
+        <v>0</v>
+      </c>
+      <c r="BD154">
+        <v>0</v>
+      </c>
+      <c r="BE154">
+        <v>0</v>
+      </c>
+      <c r="BF154">
+        <v>3</v>
+      </c>
+      <c r="BG154">
+        <v>2</v>
+      </c>
+      <c r="BH154">
+        <v>7</v>
+      </c>
+      <c r="BI154">
+        <v>0</v>
+      </c>
+      <c r="BJ154">
+        <v>10</v>
+      </c>
+      <c r="BK154">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:63">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>4342374</v>
+      </c>
+      <c r="C155" t="s">
+        <v>63</v>
+      </c>
+      <c r="D155" t="s">
+        <v>64</v>
+      </c>
+      <c r="E155" s="2">
+        <v>45010.375</v>
+      </c>
+      <c r="F155">
+        <v>20</v>
+      </c>
+      <c r="G155" t="s">
+        <v>80</v>
+      </c>
+      <c r="H155" t="s">
+        <v>70</v>
+      </c>
+      <c r="I155">
+        <v>0</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
+      <c r="K155">
+        <v>0</v>
+      </c>
+      <c r="L155">
+        <v>2</v>
+      </c>
+      <c r="M155">
+        <v>1</v>
+      </c>
+      <c r="N155">
+        <v>3</v>
+      </c>
+      <c r="O155" t="s">
+        <v>81</v>
+      </c>
+      <c r="P155" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q155">
+        <v>4</v>
+      </c>
+      <c r="R155">
+        <v>3</v>
+      </c>
+      <c r="S155">
+        <v>7</v>
+      </c>
+      <c r="T155">
+        <v>2.05</v>
+      </c>
+      <c r="U155">
+        <v>2.4</v>
+      </c>
+      <c r="V155">
+        <v>4.75</v>
+      </c>
+      <c r="W155">
+        <v>0</v>
+      </c>
+      <c r="X155">
+        <v>0</v>
+      </c>
+      <c r="Y155">
+        <v>0</v>
+      </c>
+      <c r="Z155">
+        <v>0</v>
+      </c>
+      <c r="AA155">
+        <v>0</v>
+      </c>
+      <c r="AB155">
+        <v>0</v>
+      </c>
+      <c r="AC155">
+        <v>1.57</v>
+      </c>
+      <c r="AD155">
+        <v>3.75</v>
+      </c>
+      <c r="AE155">
+        <v>4.75</v>
+      </c>
+      <c r="AF155">
+        <v>0</v>
+      </c>
+      <c r="AG155">
+        <v>0</v>
+      </c>
+      <c r="AH155">
+        <v>0</v>
+      </c>
+      <c r="AI155">
+        <v>0</v>
+      </c>
+      <c r="AJ155">
+        <v>1.57</v>
+      </c>
+      <c r="AK155">
+        <v>2.35</v>
+      </c>
+      <c r="AL155">
+        <v>1.62</v>
+      </c>
+      <c r="AM155">
+        <v>2.2</v>
+      </c>
+      <c r="AN155">
+        <v>0</v>
+      </c>
+      <c r="AO155">
+        <v>0</v>
+      </c>
+      <c r="AP155">
+        <v>0</v>
+      </c>
+      <c r="AQ155">
+        <v>1.78</v>
+      </c>
+      <c r="AR155">
+        <v>0.33</v>
+      </c>
+      <c r="AS155">
+        <v>1.9</v>
+      </c>
+      <c r="AT155">
+        <v>0.3</v>
+      </c>
+      <c r="AU155">
+        <v>1.84</v>
+      </c>
+      <c r="AV155">
+        <v>1.19</v>
+      </c>
+      <c r="AW155">
+        <v>3.03</v>
+      </c>
+      <c r="AX155">
+        <v>0</v>
+      </c>
+      <c r="AY155">
+        <v>0</v>
+      </c>
+      <c r="AZ155">
+        <v>0</v>
+      </c>
+      <c r="BA155">
+        <v>0</v>
+      </c>
+      <c r="BB155">
+        <v>0</v>
+      </c>
+      <c r="BC155">
+        <v>0</v>
+      </c>
+      <c r="BD155">
+        <v>0</v>
+      </c>
+      <c r="BE155">
+        <v>0</v>
+      </c>
+      <c r="BF155">
+        <v>6</v>
+      </c>
+      <c r="BG155">
+        <v>5</v>
+      </c>
+      <c r="BH155">
+        <v>4</v>
+      </c>
+      <c r="BI155">
+        <v>6</v>
+      </c>
+      <c r="BJ155">
+        <v>10</v>
+      </c>
+      <c r="BK155">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="156" spans="1:63">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>4342370</v>
+      </c>
+      <c r="C156" t="s">
+        <v>63</v>
+      </c>
+      <c r="D156" t="s">
+        <v>64</v>
+      </c>
+      <c r="E156" s="2">
+        <v>45010.41666666666</v>
+      </c>
+      <c r="F156">
+        <v>20</v>
+      </c>
+      <c r="G156" t="s">
+        <v>67</v>
+      </c>
+      <c r="H156" t="s">
+        <v>69</v>
+      </c>
+      <c r="I156">
+        <v>0</v>
+      </c>
+      <c r="J156">
+        <v>0</v>
+      </c>
+      <c r="K156">
+        <v>0</v>
+      </c>
+      <c r="L156">
+        <v>2</v>
+      </c>
+      <c r="M156">
+        <v>1</v>
+      </c>
+      <c r="N156">
+        <v>3</v>
+      </c>
+      <c r="O156" t="s">
+        <v>81</v>
+      </c>
+      <c r="P156" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q156">
+        <v>-1</v>
+      </c>
+      <c r="R156">
+        <v>-1</v>
+      </c>
+      <c r="S156">
+        <v>-1</v>
+      </c>
+      <c r="T156">
+        <v>0</v>
+      </c>
+      <c r="U156">
+        <v>0</v>
+      </c>
+      <c r="V156">
+        <v>0</v>
+      </c>
+      <c r="W156">
+        <v>0</v>
+      </c>
+      <c r="X156">
+        <v>0</v>
+      </c>
+      <c r="Y156">
+        <v>0</v>
+      </c>
+      <c r="Z156">
+        <v>0</v>
+      </c>
+      <c r="AA156">
+        <v>0</v>
+      </c>
+      <c r="AB156">
+        <v>0</v>
+      </c>
+      <c r="AC156">
+        <v>0</v>
+      </c>
+      <c r="AD156">
+        <v>0</v>
+      </c>
+      <c r="AE156">
+        <v>0</v>
+      </c>
+      <c r="AF156">
+        <v>0</v>
+      </c>
+      <c r="AG156">
+        <v>0</v>
+      </c>
+      <c r="AH156">
+        <v>0</v>
+      </c>
+      <c r="AI156">
+        <v>0</v>
+      </c>
+      <c r="AJ156">
+        <v>0</v>
+      </c>
+      <c r="AK156">
+        <v>0</v>
+      </c>
+      <c r="AL156">
+        <v>0</v>
+      </c>
+      <c r="AM156">
+        <v>0</v>
+      </c>
+      <c r="AN156">
+        <v>0</v>
+      </c>
+      <c r="AO156">
+        <v>0</v>
+      </c>
+      <c r="AP156">
+        <v>0</v>
+      </c>
+      <c r="AQ156">
+        <v>1.4</v>
+      </c>
+      <c r="AR156">
+        <v>1.67</v>
+      </c>
+      <c r="AS156">
+        <v>1.55</v>
+      </c>
+      <c r="AT156">
+        <v>1.5</v>
+      </c>
+      <c r="AU156">
+        <v>1.88</v>
+      </c>
+      <c r="AV156">
+        <v>1.61</v>
+      </c>
+      <c r="AW156">
+        <v>3.49</v>
+      </c>
+      <c r="AX156">
+        <v>0</v>
+      </c>
+      <c r="AY156">
+        <v>0</v>
+      </c>
+      <c r="AZ156">
+        <v>0</v>
+      </c>
+      <c r="BA156">
+        <v>0</v>
+      </c>
+      <c r="BB156">
+        <v>0</v>
+      </c>
+      <c r="BC156">
+        <v>0</v>
+      </c>
+      <c r="BD156">
+        <v>0</v>
+      </c>
+      <c r="BE156">
+        <v>0</v>
+      </c>
+      <c r="BF156">
+        <v>-1</v>
+      </c>
+      <c r="BG156">
+        <v>-1</v>
+      </c>
+      <c r="BH156">
+        <v>-1</v>
+      </c>
+      <c r="BI156">
+        <v>-1</v>
+      </c>
+      <c r="BJ156">
+        <v>-1</v>
+      </c>
+      <c r="BK156">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:63">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>4342373</v>
+      </c>
+      <c r="C157" t="s">
+        <v>63</v>
+      </c>
+      <c r="D157" t="s">
+        <v>64</v>
+      </c>
+      <c r="E157" s="2">
+        <v>45010.41666666666</v>
+      </c>
+      <c r="F157">
+        <v>20</v>
+      </c>
+      <c r="G157" t="s">
+        <v>77</v>
+      </c>
+      <c r="H157" t="s">
+        <v>71</v>
+      </c>
+      <c r="I157">
+        <v>0</v>
+      </c>
+      <c r="J157">
+        <v>0</v>
+      </c>
+      <c r="K157">
+        <v>0</v>
+      </c>
+      <c r="L157">
+        <v>1</v>
+      </c>
+      <c r="M157">
+        <v>0</v>
+      </c>
+      <c r="N157">
+        <v>1</v>
+      </c>
+      <c r="O157" t="s">
+        <v>84</v>
+      </c>
+      <c r="P157" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q157">
+        <v>7</v>
+      </c>
+      <c r="R157">
+        <v>7</v>
+      </c>
+      <c r="S157">
+        <v>14</v>
+      </c>
+      <c r="T157">
+        <v>4.33</v>
+      </c>
+      <c r="U157">
+        <v>2.3</v>
+      </c>
+      <c r="V157">
+        <v>2.25</v>
+      </c>
+      <c r="W157">
+        <v>0</v>
+      </c>
+      <c r="X157">
+        <v>0</v>
+      </c>
+      <c r="Y157">
+        <v>0</v>
+      </c>
+      <c r="Z157">
+        <v>0</v>
+      </c>
+      <c r="AA157">
+        <v>0</v>
+      </c>
+      <c r="AB157">
+        <v>0</v>
+      </c>
+      <c r="AC157">
+        <v>3.75</v>
+      </c>
+      <c r="AD157">
+        <v>4</v>
+      </c>
+      <c r="AE157">
+        <v>1.67</v>
+      </c>
+      <c r="AF157">
+        <v>0</v>
+      </c>
+      <c r="AG157">
+        <v>0</v>
+      </c>
+      <c r="AH157">
+        <v>1.19</v>
+      </c>
+      <c r="AI157">
+        <v>3.94</v>
+      </c>
+      <c r="AJ157">
+        <v>1.67</v>
+      </c>
+      <c r="AK157">
+        <v>2.15</v>
+      </c>
+      <c r="AL157">
+        <v>1.62</v>
+      </c>
+      <c r="AM157">
+        <v>2.2</v>
+      </c>
+      <c r="AN157">
+        <v>1.91</v>
+      </c>
+      <c r="AO157">
+        <v>1.29</v>
+      </c>
+      <c r="AP157">
+        <v>1.22</v>
+      </c>
+      <c r="AQ157">
+        <v>1.88</v>
+      </c>
+      <c r="AR157">
+        <v>1.78</v>
+      </c>
+      <c r="AS157">
+        <v>2</v>
+      </c>
+      <c r="AT157">
+        <v>1.6</v>
+      </c>
+      <c r="AU157">
+        <v>2.06</v>
+      </c>
+      <c r="AV157">
+        <v>1.4</v>
+      </c>
+      <c r="AW157">
+        <v>3.46</v>
+      </c>
+      <c r="AX157">
+        <v>0</v>
+      </c>
+      <c r="AY157">
+        <v>0</v>
+      </c>
+      <c r="AZ157">
+        <v>0</v>
+      </c>
+      <c r="BA157">
+        <v>0</v>
+      </c>
+      <c r="BB157">
+        <v>0</v>
+      </c>
+      <c r="BC157">
+        <v>0</v>
+      </c>
+      <c r="BD157">
+        <v>0</v>
+      </c>
+      <c r="BE157">
+        <v>0</v>
+      </c>
+      <c r="BF157">
+        <v>5</v>
+      </c>
+      <c r="BG157">
+        <v>3</v>
+      </c>
+      <c r="BH157">
+        <v>4</v>
+      </c>
+      <c r="BI157">
+        <v>2</v>
+      </c>
+      <c r="BJ157">
+        <v>9</v>
+      </c>
+      <c r="BK157">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:63">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>4342375</v>
+      </c>
+      <c r="C158" t="s">
+        <v>63</v>
+      </c>
+      <c r="D158" t="s">
+        <v>64</v>
+      </c>
+      <c r="E158" s="2">
+        <v>45010.41666666666</v>
+      </c>
+      <c r="F158">
+        <v>20</v>
+      </c>
+      <c r="G158" t="s">
+        <v>76</v>
+      </c>
+      <c r="H158" t="s">
+        <v>79</v>
+      </c>
+      <c r="I158">
+        <v>0</v>
+      </c>
+      <c r="J158">
+        <v>0</v>
+      </c>
+      <c r="K158">
+        <v>0</v>
+      </c>
+      <c r="L158">
+        <v>1</v>
+      </c>
+      <c r="M158">
+        <v>1</v>
+      </c>
+      <c r="N158">
+        <v>2</v>
+      </c>
+      <c r="O158" t="s">
+        <v>84</v>
+      </c>
+      <c r="P158" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q158">
+        <v>8</v>
+      </c>
+      <c r="R158">
+        <v>1</v>
+      </c>
+      <c r="S158">
+        <v>9</v>
+      </c>
+      <c r="T158">
+        <v>2.88</v>
+      </c>
+      <c r="U158">
+        <v>2.1</v>
+      </c>
+      <c r="V158">
+        <v>3.5</v>
+      </c>
+      <c r="W158">
+        <v>0</v>
+      </c>
+      <c r="X158">
+        <v>0</v>
+      </c>
+      <c r="Y158">
+        <v>0</v>
+      </c>
+      <c r="Z158">
+        <v>0</v>
+      </c>
+      <c r="AA158">
+        <v>0</v>
+      </c>
+      <c r="AB158">
+        <v>0</v>
+      </c>
+      <c r="AC158">
+        <v>2.2</v>
+      </c>
+      <c r="AD158">
+        <v>3.2</v>
+      </c>
+      <c r="AE158">
+        <v>2.88</v>
+      </c>
+      <c r="AF158">
+        <v>0</v>
+      </c>
+      <c r="AG158">
+        <v>0</v>
+      </c>
+      <c r="AH158">
+        <v>0</v>
+      </c>
+      <c r="AI158">
+        <v>0</v>
+      </c>
+      <c r="AJ158">
+        <v>2</v>
+      </c>
+      <c r="AK158">
+        <v>1.8</v>
+      </c>
+      <c r="AL158">
+        <v>1.8</v>
+      </c>
+      <c r="AM158">
+        <v>1.91</v>
+      </c>
+      <c r="AN158">
+        <v>0</v>
+      </c>
+      <c r="AO158">
+        <v>0</v>
+      </c>
+      <c r="AP158">
+        <v>0</v>
+      </c>
+      <c r="AQ158">
+        <v>2.11</v>
+      </c>
+      <c r="AR158">
+        <v>1.67</v>
+      </c>
+      <c r="AS158">
+        <v>2</v>
+      </c>
+      <c r="AT158">
+        <v>1.6</v>
+      </c>
+      <c r="AU158">
+        <v>1.59</v>
+      </c>
+      <c r="AV158">
+        <v>1.5</v>
+      </c>
+      <c r="AW158">
+        <v>3.09</v>
+      </c>
+      <c r="AX158">
+        <v>0</v>
+      </c>
+      <c r="AY158">
+        <v>0</v>
+      </c>
+      <c r="AZ158">
+        <v>0</v>
+      </c>
+      <c r="BA158">
+        <v>0</v>
+      </c>
+      <c r="BB158">
+        <v>0</v>
+      </c>
+      <c r="BC158">
+        <v>0</v>
+      </c>
+      <c r="BD158">
+        <v>0</v>
+      </c>
+      <c r="BE158">
+        <v>0</v>
+      </c>
+      <c r="BF158">
+        <v>6</v>
+      </c>
+      <c r="BG158">
+        <v>0</v>
+      </c>
+      <c r="BH158">
+        <v>7</v>
+      </c>
+      <c r="BI158">
+        <v>3</v>
+      </c>
+      <c r="BJ158">
+        <v>13</v>
+      </c>
+      <c r="BK158">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:63">
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>4342371</v>
+      </c>
+      <c r="C159" t="s">
+        <v>63</v>
+      </c>
+      <c r="D159" t="s">
+        <v>64</v>
+      </c>
+      <c r="E159" s="2">
+        <v>45010.47916666666</v>
+      </c>
+      <c r="F159">
+        <v>20</v>
+      </c>
+      <c r="G159" t="s">
+        <v>68</v>
+      </c>
+      <c r="H159" t="s">
+        <v>66</v>
+      </c>
+      <c r="I159">
+        <v>0</v>
+      </c>
+      <c r="J159">
+        <v>0</v>
+      </c>
+      <c r="K159">
+        <v>0</v>
+      </c>
+      <c r="L159">
+        <v>1</v>
+      </c>
+      <c r="M159">
+        <v>0</v>
+      </c>
+      <c r="N159">
+        <v>1</v>
+      </c>
+      <c r="O159" t="s">
+        <v>84</v>
+      </c>
+      <c r="P159" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q159">
+        <v>-1</v>
+      </c>
+      <c r="R159">
+        <v>-1</v>
+      </c>
+      <c r="S159">
+        <v>-1</v>
+      </c>
+      <c r="T159">
+        <v>4</v>
+      </c>
+      <c r="U159">
+        <v>2.2</v>
+      </c>
+      <c r="V159">
+        <v>2.5</v>
+      </c>
+      <c r="W159">
+        <v>0</v>
+      </c>
+      <c r="X159">
+        <v>0</v>
+      </c>
+      <c r="Y159">
+        <v>0</v>
+      </c>
+      <c r="Z159">
+        <v>0</v>
+      </c>
+      <c r="AA159">
+        <v>0</v>
+      </c>
+      <c r="AB159">
+        <v>0</v>
+      </c>
+      <c r="AC159">
+        <v>3.4</v>
+      </c>
+      <c r="AD159">
+        <v>3.4</v>
+      </c>
+      <c r="AE159">
+        <v>1.91</v>
+      </c>
+      <c r="AF159">
+        <v>0</v>
+      </c>
+      <c r="AG159">
+        <v>0</v>
+      </c>
+      <c r="AH159">
+        <v>1.25</v>
+      </c>
+      <c r="AI159">
+        <v>3.5</v>
+      </c>
+      <c r="AJ159">
+        <v>1.8</v>
+      </c>
+      <c r="AK159">
+        <v>2</v>
+      </c>
+      <c r="AL159">
+        <v>0</v>
+      </c>
+      <c r="AM159">
+        <v>0</v>
+      </c>
+      <c r="AN159">
+        <v>0</v>
+      </c>
+      <c r="AO159">
+        <v>0</v>
+      </c>
+      <c r="AP159">
+        <v>0</v>
+      </c>
+      <c r="AQ159">
+        <v>1</v>
+      </c>
+      <c r="AR159">
+        <v>2</v>
+      </c>
+      <c r="AS159">
+        <v>1.2</v>
+      </c>
+      <c r="AT159">
+        <v>1.8</v>
+      </c>
+      <c r="AU159">
+        <v>2.3</v>
+      </c>
+      <c r="AV159">
+        <v>1.38</v>
+      </c>
+      <c r="AW159">
+        <v>3.68</v>
+      </c>
+      <c r="AX159">
+        <v>0</v>
+      </c>
+      <c r="AY159">
+        <v>0</v>
+      </c>
+      <c r="AZ159">
+        <v>0</v>
+      </c>
+      <c r="BA159">
+        <v>0</v>
+      </c>
+      <c r="BB159">
+        <v>0</v>
+      </c>
+      <c r="BC159">
+        <v>0</v>
+      </c>
+      <c r="BD159">
+        <v>0</v>
+      </c>
+      <c r="BE159">
+        <v>0</v>
+      </c>
+      <c r="BF159">
+        <v>-1</v>
+      </c>
+      <c r="BG159">
+        <v>-1</v>
+      </c>
+      <c r="BH159">
+        <v>-1</v>
+      </c>
+      <c r="BI159">
+        <v>-1</v>
+      </c>
+      <c r="BJ159">
+        <v>-1</v>
+      </c>
+      <c r="BK159">
         <v>-1</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Croatia Second NL_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Croatia Second NL_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="89">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -642,7 +642,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK159"/>
+  <dimension ref="A1:BK161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2122,7 +2122,7 @@
         <v>2.6</v>
       </c>
       <c r="AT8">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2883,7 +2883,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT12">
         <v>1.6</v>
@@ -3074,7 +3074,7 @@
         <v>1</v>
       </c>
       <c r="AS13">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT13">
         <v>1.6</v>
@@ -3841,7 +3841,7 @@
         <v>1.4</v>
       </c>
       <c r="AT17">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4414,7 +4414,7 @@
         <v>1.9</v>
       </c>
       <c r="AT20">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU20">
         <v>0</v>
@@ -5557,7 +5557,7 @@
         <v>0.5</v>
       </c>
       <c r="AS26">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT26">
         <v>1.6</v>
@@ -5939,10 +5939,10 @@
         <v>0.5</v>
       </c>
       <c r="AS28">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT28">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU28">
         <v>0</v>
@@ -6706,7 +6706,7 @@
         <v>1.55</v>
       </c>
       <c r="AT32">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU32">
         <v>2.22</v>
@@ -9568,7 +9568,7 @@
         <v>2.33</v>
       </c>
       <c r="AS47">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT47">
         <v>2.1</v>
@@ -9762,7 +9762,7 @@
         <v>2</v>
       </c>
       <c r="AT48">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU48">
         <v>1.81</v>
@@ -10335,7 +10335,7 @@
         <v>1.8</v>
       </c>
       <c r="AT51">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU51">
         <v>1.53</v>
@@ -11287,7 +11287,7 @@
         <v>0.67</v>
       </c>
       <c r="AS56">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT56">
         <v>1.3</v>
@@ -12436,7 +12436,7 @@
         <v>2</v>
       </c>
       <c r="AT62">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU62">
         <v>2.15</v>
@@ -13006,7 +13006,7 @@
         <v>0.5</v>
       </c>
       <c r="AS65">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT65">
         <v>1.3</v>
@@ -13770,7 +13770,7 @@
         <v>0.33</v>
       </c>
       <c r="AS69">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT69">
         <v>0.55</v>
@@ -14155,7 +14155,7 @@
         <v>2.6</v>
       </c>
       <c r="AT71">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU71">
         <v>3.01</v>
@@ -15301,7 +15301,7 @@
         <v>1.2</v>
       </c>
       <c r="AT77">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU77">
         <v>2.12</v>
@@ -16062,7 +16062,7 @@
         <v>0.83</v>
       </c>
       <c r="AS81">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT81">
         <v>0.6</v>
@@ -16447,7 +16447,7 @@
         <v>1.9</v>
       </c>
       <c r="AT83">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU83">
         <v>1.92</v>
@@ -16635,7 +16635,7 @@
         <v>0</v>
       </c>
       <c r="AS84">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT84">
         <v>0.4</v>
@@ -18163,7 +18163,7 @@
         <v>0.4</v>
       </c>
       <c r="AS92">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT92">
         <v>0.55</v>
@@ -18739,7 +18739,7 @@
         <v>1.7</v>
       </c>
       <c r="AT95">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU95">
         <v>1.51</v>
@@ -19500,10 +19500,10 @@
         <v>1</v>
       </c>
       <c r="AS99">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT99">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU99">
         <v>1.82</v>
@@ -20840,7 +20840,7 @@
         <v>1.8</v>
       </c>
       <c r="AT106">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU106">
         <v>1.8</v>
@@ -21219,7 +21219,7 @@
         <v>0.43</v>
       </c>
       <c r="AS108">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT108">
         <v>0.5</v>
@@ -22941,7 +22941,7 @@
         <v>1.9</v>
       </c>
       <c r="AT117">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU117">
         <v>1.84</v>
@@ -23320,7 +23320,7 @@
         <v>2.17</v>
       </c>
       <c r="AS119">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT119">
         <v>1.8</v>
@@ -23893,7 +23893,7 @@
         <v>1</v>
       </c>
       <c r="AS122">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT122">
         <v>0.7</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="AS126">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT126">
         <v>0.4</v>
@@ -24851,7 +24851,7 @@
         <v>2</v>
       </c>
       <c r="AT127">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU127">
         <v>2.06</v>
@@ -25806,7 +25806,7 @@
         <v>1.2</v>
       </c>
       <c r="AT132">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU132">
         <v>1.43</v>
@@ -27331,7 +27331,7 @@
         <v>0.38</v>
       </c>
       <c r="AS140">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT140">
         <v>0.3</v>
@@ -27713,7 +27713,7 @@
         <v>0.57</v>
       </c>
       <c r="AS142">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT142">
         <v>0.44</v>
@@ -27907,7 +27907,7 @@
         <v>1.2</v>
       </c>
       <c r="AT143">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU143">
         <v>2.3</v>
@@ -31015,6 +31015,388 @@
       </c>
       <c r="BK159">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:63">
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>4342369</v>
+      </c>
+      <c r="C160" t="s">
+        <v>63</v>
+      </c>
+      <c r="D160" t="s">
+        <v>64</v>
+      </c>
+      <c r="E160" s="2">
+        <v>45011.29166666666</v>
+      </c>
+      <c r="F160">
+        <v>20</v>
+      </c>
+      <c r="G160" t="s">
+        <v>74</v>
+      </c>
+      <c r="H160" t="s">
+        <v>72</v>
+      </c>
+      <c r="I160">
+        <v>0</v>
+      </c>
+      <c r="J160">
+        <v>0</v>
+      </c>
+      <c r="K160">
+        <v>0</v>
+      </c>
+      <c r="L160">
+        <v>3</v>
+      </c>
+      <c r="M160">
+        <v>2</v>
+      </c>
+      <c r="N160">
+        <v>5</v>
+      </c>
+      <c r="O160" t="s">
+        <v>83</v>
+      </c>
+      <c r="P160" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q160">
+        <v>2</v>
+      </c>
+      <c r="R160">
+        <v>5</v>
+      </c>
+      <c r="S160">
+        <v>7</v>
+      </c>
+      <c r="T160">
+        <v>2.5</v>
+      </c>
+      <c r="U160">
+        <v>2.25</v>
+      </c>
+      <c r="V160">
+        <v>3.75</v>
+      </c>
+      <c r="W160">
+        <v>0</v>
+      </c>
+      <c r="X160">
+        <v>0</v>
+      </c>
+      <c r="Y160">
+        <v>0</v>
+      </c>
+      <c r="Z160">
+        <v>0</v>
+      </c>
+      <c r="AA160">
+        <v>0</v>
+      </c>
+      <c r="AB160">
+        <v>0</v>
+      </c>
+      <c r="AC160">
+        <v>1.91</v>
+      </c>
+      <c r="AD160">
+        <v>3.4</v>
+      </c>
+      <c r="AE160">
+        <v>3.4</v>
+      </c>
+      <c r="AF160">
+        <v>0</v>
+      </c>
+      <c r="AG160">
+        <v>0</v>
+      </c>
+      <c r="AH160">
+        <v>0</v>
+      </c>
+      <c r="AI160">
+        <v>0</v>
+      </c>
+      <c r="AJ160">
+        <v>1.67</v>
+      </c>
+      <c r="AK160">
+        <v>2.15</v>
+      </c>
+      <c r="AL160">
+        <v>0</v>
+      </c>
+      <c r="AM160">
+        <v>0</v>
+      </c>
+      <c r="AN160">
+        <v>0</v>
+      </c>
+      <c r="AO160">
+        <v>0</v>
+      </c>
+      <c r="AP160">
+        <v>0</v>
+      </c>
+      <c r="AQ160">
+        <v>1.67</v>
+      </c>
+      <c r="AR160">
+        <v>1.44</v>
+      </c>
+      <c r="AS160">
+        <v>1.8</v>
+      </c>
+      <c r="AT160">
+        <v>1.3</v>
+      </c>
+      <c r="AU160">
+        <v>1.74</v>
+      </c>
+      <c r="AV160">
+        <v>1.33</v>
+      </c>
+      <c r="AW160">
+        <v>3.07</v>
+      </c>
+      <c r="AX160">
+        <v>0</v>
+      </c>
+      <c r="AY160">
+        <v>0</v>
+      </c>
+      <c r="AZ160">
+        <v>0</v>
+      </c>
+      <c r="BA160">
+        <v>0</v>
+      </c>
+      <c r="BB160">
+        <v>0</v>
+      </c>
+      <c r="BC160">
+        <v>0</v>
+      </c>
+      <c r="BD160">
+        <v>0</v>
+      </c>
+      <c r="BE160">
+        <v>0</v>
+      </c>
+      <c r="BF160">
+        <v>8</v>
+      </c>
+      <c r="BG160">
+        <v>4</v>
+      </c>
+      <c r="BH160">
+        <v>3</v>
+      </c>
+      <c r="BI160">
+        <v>2</v>
+      </c>
+      <c r="BJ160">
+        <v>11</v>
+      </c>
+      <c r="BK160">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161" spans="1:63">
+      <c r="A161" s="1">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>4342368</v>
+      </c>
+      <c r="C161" t="s">
+        <v>63</v>
+      </c>
+      <c r="D161" t="s">
+        <v>64</v>
+      </c>
+      <c r="E161" s="2">
+        <v>45011.375</v>
+      </c>
+      <c r="F161">
+        <v>20</v>
+      </c>
+      <c r="G161" t="s">
+        <v>73</v>
+      </c>
+      <c r="H161" t="s">
+        <v>75</v>
+      </c>
+      <c r="I161">
+        <v>0</v>
+      </c>
+      <c r="J161">
+        <v>0</v>
+      </c>
+      <c r="K161">
+        <v>0</v>
+      </c>
+      <c r="L161">
+        <v>2</v>
+      </c>
+      <c r="M161">
+        <v>0</v>
+      </c>
+      <c r="N161">
+        <v>2</v>
+      </c>
+      <c r="O161" t="s">
+        <v>81</v>
+      </c>
+      <c r="P161" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q161">
+        <v>11</v>
+      </c>
+      <c r="R161">
+        <v>0</v>
+      </c>
+      <c r="S161">
+        <v>11</v>
+      </c>
+      <c r="T161">
+        <v>1.67</v>
+      </c>
+      <c r="U161">
+        <v>2.5</v>
+      </c>
+      <c r="V161">
+        <v>9.5</v>
+      </c>
+      <c r="W161">
+        <v>0</v>
+      </c>
+      <c r="X161">
+        <v>0</v>
+      </c>
+      <c r="Y161">
+        <v>2.37</v>
+      </c>
+      <c r="Z161">
+        <v>1.43</v>
+      </c>
+      <c r="AA161">
+        <v>0</v>
+      </c>
+      <c r="AB161">
+        <v>0</v>
+      </c>
+      <c r="AC161">
+        <v>1.22</v>
+      </c>
+      <c r="AD161">
+        <v>5.5</v>
+      </c>
+      <c r="AE161">
+        <v>9</v>
+      </c>
+      <c r="AF161">
+        <v>0</v>
+      </c>
+      <c r="AG161">
+        <v>0</v>
+      </c>
+      <c r="AH161">
+        <v>0</v>
+      </c>
+      <c r="AI161">
+        <v>0</v>
+      </c>
+      <c r="AJ161">
+        <v>1.73</v>
+      </c>
+      <c r="AK161">
+        <v>2.08</v>
+      </c>
+      <c r="AL161">
+        <v>2.34</v>
+      </c>
+      <c r="AM161">
+        <v>1.55</v>
+      </c>
+      <c r="AN161">
+        <v>0</v>
+      </c>
+      <c r="AO161">
+        <v>0</v>
+      </c>
+      <c r="AP161">
+        <v>3.7</v>
+      </c>
+      <c r="AQ161">
+        <v>1.89</v>
+      </c>
+      <c r="AR161">
+        <v>1.33</v>
+      </c>
+      <c r="AS161">
+        <v>2</v>
+      </c>
+      <c r="AT161">
+        <v>1.2</v>
+      </c>
+      <c r="AU161">
+        <v>1.69</v>
+      </c>
+      <c r="AV161">
+        <v>1.65</v>
+      </c>
+      <c r="AW161">
+        <v>3.34</v>
+      </c>
+      <c r="AX161">
+        <v>0</v>
+      </c>
+      <c r="AY161">
+        <v>0</v>
+      </c>
+      <c r="AZ161">
+        <v>0</v>
+      </c>
+      <c r="BA161">
+        <v>0</v>
+      </c>
+      <c r="BB161">
+        <v>0</v>
+      </c>
+      <c r="BC161">
+        <v>0</v>
+      </c>
+      <c r="BD161">
+        <v>0</v>
+      </c>
+      <c r="BE161">
+        <v>0</v>
+      </c>
+      <c r="BF161">
+        <v>9</v>
+      </c>
+      <c r="BG161">
+        <v>0</v>
+      </c>
+      <c r="BH161">
+        <v>5</v>
+      </c>
+      <c r="BI161">
+        <v>2</v>
+      </c>
+      <c r="BJ161">
+        <v>14</v>
+      </c>
+      <c r="BK161">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Croatia Second NL_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Croatia Second NL_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK161"/>
+  <dimension ref="A1:BK169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AT2" t="n">
         <v>2.1</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>1.55</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>1.2</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT7" t="n">
         <v>1.6</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT8" t="n">
         <v>1.2</v>
@@ -2324,7 +2324,7 @@
         <v>1.7</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU10" t="n">
         <v>1.06</v>
@@ -2730,7 +2730,7 @@
         <v>1.2</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT12" t="n">
         <v>1.6</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT14" t="n">
         <v>0.3</v>
@@ -3948,7 +3948,7 @@
         <v>1.4</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4351,10 +4351,10 @@
         <v>0.5</v>
       </c>
       <c r="AS19" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU19" t="n">
         <v>1.58</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT20" t="n">
         <v>1.2</v>
@@ -4757,7 +4757,7 @@
         <v>1</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT21" t="n">
         <v>2.1</v>
@@ -4960,10 +4960,10 @@
         <v>1</v>
       </c>
       <c r="AS22" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU22" t="n">
         <v>0</v>
@@ -5163,10 +5163,10 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU23" t="n">
         <v>0</v>
@@ -5369,7 +5369,7 @@
         <v>1.7</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.4</v>
+        <v>0.64</v>
       </c>
       <c r="AU24" t="n">
         <v>0</v>
@@ -5572,7 +5572,7 @@
         <v>1.55</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU25" t="n">
         <v>0</v>
@@ -5772,7 +5772,7 @@
         <v>0.5</v>
       </c>
       <c r="AS26" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT26" t="n">
         <v>1.6</v>
@@ -6993,7 +6993,7 @@
         <v>1.55</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU32" t="n">
         <v>2.22</v>
@@ -7396,10 +7396,10 @@
         <v>0.5</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU34" t="n">
         <v>0</v>
@@ -7599,10 +7599,10 @@
         <v>0</v>
       </c>
       <c r="AS35" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU35" t="n">
         <v>1.58</v>
@@ -7802,10 +7802,10 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.4</v>
+        <v>0.64</v>
       </c>
       <c r="AU36" t="n">
         <v>1.32</v>
@@ -8005,10 +8005,10 @@
         <v>0</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU37" t="n">
         <v>0</v>
@@ -8208,10 +8208,10 @@
         <v>0.67</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU38" t="n">
         <v>1.42</v>
@@ -8411,7 +8411,7 @@
         <v>2</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT39" t="n">
         <v>2.1</v>
@@ -8617,7 +8617,7 @@
         <v>1.7</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU40" t="n">
         <v>2.14</v>
@@ -8817,10 +8817,10 @@
         <v>0</v>
       </c>
       <c r="AS41" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU41" t="n">
         <v>0</v>
@@ -10644,10 +10644,10 @@
         <v>0</v>
       </c>
       <c r="AS50" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AT50" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU50" t="n">
         <v>1.61</v>
@@ -10847,10 +10847,10 @@
         <v>1</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU51" t="n">
         <v>1.53</v>
@@ -11050,10 +11050,10 @@
         <v>0.5</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU52" t="n">
         <v>1.74</v>
@@ -11253,10 +11253,10 @@
         <v>1</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU53" t="n">
         <v>1.42</v>
@@ -11456,10 +11456,10 @@
         <v>0</v>
       </c>
       <c r="AS54" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT54" t="n">
-        <v>0.4</v>
+        <v>0.64</v>
       </c>
       <c r="AU54" t="n">
         <v>0</v>
@@ -11659,10 +11659,10 @@
         <v>2.33</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU55" t="n">
         <v>1.61</v>
@@ -11862,10 +11862,10 @@
         <v>0.67</v>
       </c>
       <c r="AS56" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU56" t="n">
         <v>1.38</v>
@@ -12065,10 +12065,10 @@
         <v>0</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT57" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU57" t="n">
         <v>1.69</v>
@@ -12268,7 +12268,7 @@
         <v>2</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT58" t="n">
         <v>1.8</v>
@@ -13692,7 +13692,7 @@
         <v>1.8</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU65" t="n">
         <v>1.33</v>
@@ -13892,10 +13892,10 @@
         <v>1.75</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU66" t="n">
         <v>1.67</v>
@@ -14095,7 +14095,7 @@
         <v>1.33</v>
       </c>
       <c r="AS67" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AT67" t="n">
         <v>1.5</v>
@@ -14298,10 +14298,10 @@
         <v>0</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT68" t="n">
-        <v>0.4</v>
+        <v>0.64</v>
       </c>
       <c r="AU68" t="n">
         <v>1.94</v>
@@ -14501,10 +14501,10 @@
         <v>0.33</v>
       </c>
       <c r="AS69" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT69" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU69" t="n">
         <v>1.44</v>
@@ -14704,10 +14704,10 @@
         <v>1</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT70" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU70" t="n">
         <v>1.42</v>
@@ -14907,10 +14907,10 @@
         <v>1.67</v>
       </c>
       <c r="AS71" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU71" t="n">
         <v>3.01</v>
@@ -15110,10 +15110,10 @@
         <v>0.75</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT72" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU72" t="n">
         <v>1.69</v>
@@ -15316,7 +15316,7 @@
         <v>2</v>
       </c>
       <c r="AT73" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU73" t="n">
         <v>1.81</v>
@@ -15516,7 +15516,7 @@
         <v>0.25</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT74" t="n">
         <v>0.7</v>
@@ -15722,7 +15722,7 @@
         <v>2</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU75" t="n">
         <v>2.09</v>
@@ -16734,7 +16734,7 @@
         <v>2</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT80" t="n">
         <v>1.6</v>
@@ -16940,7 +16940,7 @@
         <v>1.8</v>
       </c>
       <c r="AT81" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU81" t="n">
         <v>1.33</v>
@@ -17140,10 +17140,10 @@
         <v>1.4</v>
       </c>
       <c r="AS82" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU82" t="n">
         <v>1.47</v>
@@ -17343,10 +17343,10 @@
         <v>1.25</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU83" t="n">
         <v>1.92</v>
@@ -17546,10 +17546,10 @@
         <v>0</v>
       </c>
       <c r="AS84" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.4</v>
+        <v>0.64</v>
       </c>
       <c r="AU84" t="n">
         <v>1.62</v>
@@ -17749,10 +17749,10 @@
         <v>1</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT85" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU85" t="n">
         <v>1.69</v>
@@ -17955,7 +17955,7 @@
         <v>2</v>
       </c>
       <c r="AT86" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU86" t="n">
         <v>1.81</v>
@@ -18158,7 +18158,7 @@
         <v>1.9</v>
       </c>
       <c r="AT87" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU87" t="n">
         <v>1.41</v>
@@ -18358,7 +18358,7 @@
         <v>2.25</v>
       </c>
       <c r="AS88" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT88" t="n">
         <v>1.8</v>
@@ -18561,7 +18561,7 @@
         <v>1.75</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT89" t="n">
         <v>1.5</v>
@@ -18764,7 +18764,7 @@
         <v>0.6</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT90" t="n">
         <v>0.3</v>
@@ -18967,7 +18967,7 @@
         <v>1.8</v>
       </c>
       <c r="AS91" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AT91" t="n">
         <v>1.6</v>
@@ -19173,7 +19173,7 @@
         <v>1.8</v>
       </c>
       <c r="AT92" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU92" t="n">
         <v>1.29</v>
@@ -19376,7 +19376,7 @@
         <v>1.2</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU93" t="n">
         <v>2.3</v>
@@ -19982,7 +19982,7 @@
         <v>1.33</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT96" t="n">
         <v>1.6</v>
@@ -20188,7 +20188,7 @@
         <v>1.4</v>
       </c>
       <c r="AT97" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU97" t="n">
         <v>1.58</v>
@@ -20388,7 +20388,7 @@
         <v>2</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT98" t="n">
         <v>1.8</v>
@@ -20591,10 +20591,10 @@
         <v>1</v>
       </c>
       <c r="AS99" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU99" t="n">
         <v>1.82</v>
@@ -20797,7 +20797,7 @@
         <v>1.9</v>
       </c>
       <c r="AT100" t="n">
-        <v>0.4</v>
+        <v>0.64</v>
       </c>
       <c r="AU100" t="n">
         <v>1.82</v>
@@ -21000,7 +21000,7 @@
         <v>2</v>
       </c>
       <c r="AT101" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU101" t="n">
         <v>2.09</v>
@@ -21203,7 +21203,7 @@
         <v>2</v>
       </c>
       <c r="AT102" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU102" t="n">
         <v>1.59</v>
@@ -21403,7 +21403,7 @@
         <v>2</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT103" t="n">
         <v>1.5</v>
@@ -21606,10 +21606,10 @@
         <v>1.67</v>
       </c>
       <c r="AS104" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU104" t="n">
         <v>3.01</v>
@@ -21809,7 +21809,7 @@
         <v>0.8</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT105" t="n">
         <v>0.7</v>
@@ -22012,7 +22012,7 @@
         <v>1.57</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT106" t="n">
         <v>1.2</v>
@@ -22215,7 +22215,7 @@
         <v>1.29</v>
       </c>
       <c r="AS107" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AT107" t="n">
         <v>1.6</v>
@@ -22421,7 +22421,7 @@
         <v>1.8</v>
       </c>
       <c r="AT108" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU108" t="n">
         <v>1.77</v>
@@ -22624,7 +22624,7 @@
         <v>1.2</v>
       </c>
       <c r="AT109" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU109" t="n">
         <v>2.3</v>
@@ -22827,7 +22827,7 @@
         <v>1.7</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU110" t="n">
         <v>1.48</v>
@@ -23027,7 +23027,7 @@
         <v>2.43</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT111" t="n">
         <v>2.1</v>
@@ -23230,7 +23230,7 @@
         <v>0.5</v>
       </c>
       <c r="AS112" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT112" t="n">
         <v>0.3</v>
@@ -23436,7 +23436,7 @@
         <v>1.55</v>
       </c>
       <c r="AT113" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU113" t="n">
         <v>1.7</v>
@@ -23636,7 +23636,7 @@
         <v>2</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT114" t="n">
         <v>1.6</v>
@@ -23842,7 +23842,7 @@
         <v>1.4</v>
       </c>
       <c r="AT115" t="n">
-        <v>0.4</v>
+        <v>0.64</v>
       </c>
       <c r="AU115" t="n">
         <v>1.63</v>
@@ -24248,7 +24248,7 @@
         <v>1.9</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU117" t="n">
         <v>1.84</v>
@@ -24448,10 +24448,10 @@
         <v>1.43</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT118" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU118" t="n">
         <v>1.41</v>
@@ -24651,7 +24651,7 @@
         <v>2.17</v>
       </c>
       <c r="AS119" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT119" t="n">
         <v>1.8</v>
@@ -24854,7 +24854,7 @@
         <v>1.17</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT120" t="n">
         <v>0.7</v>
@@ -25060,7 +25060,7 @@
         <v>1.55</v>
       </c>
       <c r="AT121" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU121" t="n">
         <v>1.7</v>
@@ -25260,7 +25260,7 @@
         <v>1</v>
       </c>
       <c r="AS122" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT122" t="n">
         <v>0.7</v>
@@ -25463,7 +25463,7 @@
         <v>0.43</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT123" t="n">
         <v>0.3</v>
@@ -25669,7 +25669,7 @@
         <v>1.4</v>
       </c>
       <c r="AT124" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU124" t="n">
         <v>1.63</v>
@@ -25869,7 +25869,7 @@
         <v>1.86</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT125" t="n">
         <v>1.6</v>
@@ -26075,7 +26075,7 @@
         <v>1.8</v>
       </c>
       <c r="AT126" t="n">
-        <v>0.4</v>
+        <v>0.64</v>
       </c>
       <c r="AU126" t="n">
         <v>1.74</v>
@@ -26278,7 +26278,7 @@
         <v>2</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU127" t="n">
         <v>2.06</v>
@@ -26884,10 +26884,10 @@
         <v>1.38</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT130" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU130" t="n">
         <v>1.78</v>
@@ -27087,7 +27087,7 @@
         <v>2.5</v>
       </c>
       <c r="AS131" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT131" t="n">
         <v>2.1</v>
@@ -27290,7 +27290,7 @@
         <v>1.5</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT132" t="n">
         <v>1.2</v>
@@ -27696,10 +27696,10 @@
         <v>0.38</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT134" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU134" t="n">
         <v>1.8</v>
@@ -27902,7 +27902,7 @@
         <v>1.7</v>
       </c>
       <c r="AT135" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU135" t="n">
         <v>1.48</v>
@@ -28102,10 +28102,10 @@
         <v>0.88</v>
       </c>
       <c r="AS136" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU136" t="n">
         <v>1.2</v>
@@ -28308,7 +28308,7 @@
         <v>1.55</v>
       </c>
       <c r="AT137" t="n">
-        <v>0.4</v>
+        <v>0.64</v>
       </c>
       <c r="AU137" t="n">
         <v>1.88</v>
@@ -28508,10 +28508,10 @@
         <v>0.33</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT138" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU138" t="n">
         <v>1.82</v>
@@ -28914,7 +28914,7 @@
         <v>0.38</v>
       </c>
       <c r="AS140" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT140" t="n">
         <v>0.3</v>
@@ -29323,7 +29323,7 @@
         <v>1.8</v>
       </c>
       <c r="AT142" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU142" t="n">
         <v>1.74</v>
@@ -29526,7 +29526,7 @@
         <v>1.2</v>
       </c>
       <c r="AT143" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU143" t="n">
         <v>2.3</v>
@@ -29929,7 +29929,7 @@
         <v>1.5</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT145" t="n">
         <v>1.6</v>
@@ -30132,10 +30132,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT146" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU146" t="n">
         <v>1.82</v>
@@ -30335,7 +30335,7 @@
         <v>2.33</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT147" t="n">
         <v>2.1</v>
@@ -30538,10 +30538,10 @@
         <v>1.22</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT148" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU148" t="n">
         <v>1.65</v>
@@ -30741,10 +30741,10 @@
         <v>0.3</v>
       </c>
       <c r="AS149" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AT149" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU149" t="n">
         <v>1.2</v>
@@ -30944,10 +30944,10 @@
         <v>0.67</v>
       </c>
       <c r="AS150" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT150" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU150" t="n">
         <v>2.59</v>
@@ -31147,10 +31147,10 @@
         <v>1.11</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT151" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU151" t="n">
         <v>1.43</v>
@@ -31350,10 +31350,10 @@
         <v>0.33</v>
       </c>
       <c r="AS152" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT152" t="n">
-        <v>0.4</v>
+        <v>0.64</v>
       </c>
       <c r="AU152" t="n">
         <v>1.8</v>
@@ -31556,7 +31556,7 @@
         <v>1.7</v>
       </c>
       <c r="AT153" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU153" t="n">
         <v>1.48</v>
@@ -32977,7 +32977,7 @@
         <v>1.8</v>
       </c>
       <c r="AT160" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU160" t="n">
         <v>1.74</v>
@@ -33177,7 +33177,7 @@
         <v>1.33</v>
       </c>
       <c r="AS161" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT161" t="n">
         <v>1.2</v>
@@ -33232,6 +33232,1630 @@
       </c>
       <c r="BK161" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B162" t="n">
+        <v>4342379</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Croatia Second NL</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E162" s="2" t="n">
+        <v>45016.47916666666</v>
+      </c>
+      <c r="F162" t="n">
+        <v>21</v>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>Zrinski Jurjevac</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>Osijek II</t>
+        </is>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" t="n">
+        <v>0</v>
+      </c>
+      <c r="L162" t="n">
+        <v>2</v>
+      </c>
+      <c r="M162" t="n">
+        <v>0</v>
+      </c>
+      <c r="N162" t="n">
+        <v>2</v>
+      </c>
+      <c r="O162" t="inlineStr">
+        <is>
+          <t>['-1', '-1']</t>
+        </is>
+      </c>
+      <c r="P162" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q162" t="n">
+        <v>6</v>
+      </c>
+      <c r="R162" t="n">
+        <v>2</v>
+      </c>
+      <c r="S162" t="n">
+        <v>8</v>
+      </c>
+      <c r="T162" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="U162" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V162" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W162" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X162" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="Y162" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="Z162" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AA162" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB162" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC162" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AD162" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AE162" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF162" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG162" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH162" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AI162" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AJ162" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK162" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AL162" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM162" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AN162" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AO162" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AP162" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="AQ162" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AR162" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AS162" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AT162" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AU162" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AV162" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AW162" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AX162" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY162" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ162" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA162" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB162" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC162" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD162" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE162" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF162" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG162" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH162" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI162" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ162" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK162" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B163" t="n">
+        <v>4342376</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Croatia Second NL</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E163" s="2" t="n">
+        <v>45016.47916666666</v>
+      </c>
+      <c r="F163" t="n">
+        <v>21</v>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>Sesvete</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>Dugo Selo</t>
+        </is>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
+      <c r="K163" t="n">
+        <v>0</v>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="n">
+        <v>2</v>
+      </c>
+      <c r="O163" t="inlineStr">
+        <is>
+          <t>['-1']</t>
+        </is>
+      </c>
+      <c r="P163" t="inlineStr">
+        <is>
+          <t>['-1']</t>
+        </is>
+      </c>
+      <c r="Q163" t="n">
+        <v>5</v>
+      </c>
+      <c r="R163" t="n">
+        <v>9</v>
+      </c>
+      <c r="S163" t="n">
+        <v>14</v>
+      </c>
+      <c r="T163" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="U163" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V163" t="n">
+        <v>6</v>
+      </c>
+      <c r="W163" t="n">
+        <v>0</v>
+      </c>
+      <c r="X163" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y163" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z163" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA163" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB163" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC163" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AD163" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AE163" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AF163" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG163" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH163" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI163" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ163" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK163" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AL163" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM163" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN163" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO163" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP163" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ163" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR163" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS163" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AT163" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AU163" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AV163" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW163" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AX163" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY163" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ163" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA163" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB163" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC163" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD163" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE163" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF163" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG163" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH163" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI163" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ163" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK163" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B164" t="n">
+        <v>4342381</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Croatia Second NL</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E164" s="2" t="n">
+        <v>45017.33333333334</v>
+      </c>
+      <c r="F164" t="n">
+        <v>21</v>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>NK Marsonia 1909</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>Jadran Poreč</t>
+        </is>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
+      <c r="K164" t="n">
+        <v>0</v>
+      </c>
+      <c r="L164" t="n">
+        <v>3</v>
+      </c>
+      <c r="M164" t="n">
+        <v>2</v>
+      </c>
+      <c r="N164" t="n">
+        <v>5</v>
+      </c>
+      <c r="O164" t="inlineStr">
+        <is>
+          <t>['-1', '-1', '-1']</t>
+        </is>
+      </c>
+      <c r="P164" t="inlineStr">
+        <is>
+          <t>['-1', '-1']</t>
+        </is>
+      </c>
+      <c r="Q164" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R164" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S164" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T164" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U164" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V164" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="W164" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X164" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Y164" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC164" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AD164" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE164" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AF164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH164" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AI164" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AJ164" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AK164" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AL164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ164" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR164" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AS164" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AT164" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU164" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AV164" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AW164" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AX164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ164" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA164" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB164" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC164" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD164" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE164" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF164" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG164" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH164" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI164" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ164" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK164" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B165" t="n">
+        <v>4342378</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Croatia Second NL</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E165" s="2" t="n">
+        <v>45017.47916666666</v>
+      </c>
+      <c r="F165" t="n">
+        <v>21</v>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>Međimurje Čakovec</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>Zagorec</t>
+        </is>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
+      <c r="K165" t="n">
+        <v>0</v>
+      </c>
+      <c r="L165" t="n">
+        <v>0</v>
+      </c>
+      <c r="M165" t="n">
+        <v>2</v>
+      </c>
+      <c r="N165" t="n">
+        <v>2</v>
+      </c>
+      <c r="O165" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P165" t="inlineStr">
+        <is>
+          <t>['-1', '-1']</t>
+        </is>
+      </c>
+      <c r="Q165" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R165" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S165" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T165" t="n">
+        <v>0</v>
+      </c>
+      <c r="U165" t="n">
+        <v>0</v>
+      </c>
+      <c r="V165" t="n">
+        <v>0</v>
+      </c>
+      <c r="W165" t="n">
+        <v>0</v>
+      </c>
+      <c r="X165" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y165" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z165" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA165" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB165" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC165" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD165" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE165" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF165" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG165" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH165" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI165" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ165" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK165" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL165" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM165" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN165" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO165" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP165" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ165" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AR165" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AS165" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AT165" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AU165" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AV165" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AW165" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AX165" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY165" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ165" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA165" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB165" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC165" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD165" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE165" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF165" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG165" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH165" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI165" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ165" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK165" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B166" t="n">
+        <v>4342380</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Croatia Second NL</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E166" s="2" t="n">
+        <v>45017.47916666666</v>
+      </c>
+      <c r="F166" t="n">
+        <v>21</v>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>NK Belišće</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>Mladost Ždralovi</t>
+        </is>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
+      <c r="K166" t="n">
+        <v>0</v>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="n">
+        <v>2</v>
+      </c>
+      <c r="O166" t="inlineStr">
+        <is>
+          <t>['-1']</t>
+        </is>
+      </c>
+      <c r="P166" t="inlineStr">
+        <is>
+          <t>['-1']</t>
+        </is>
+      </c>
+      <c r="Q166" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R166" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S166" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T166" t="n">
+        <v>0</v>
+      </c>
+      <c r="U166" t="n">
+        <v>0</v>
+      </c>
+      <c r="V166" t="n">
+        <v>0</v>
+      </c>
+      <c r="W166" t="n">
+        <v>0</v>
+      </c>
+      <c r="X166" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y166" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z166" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA166" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB166" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC166" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD166" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE166" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF166" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG166" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH166" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI166" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ166" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK166" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL166" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM166" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN166" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO166" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP166" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ166" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AR166" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AS166" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AT166" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AU166" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AV166" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AW166" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AX166" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY166" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ166" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA166" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB166" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC166" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD166" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE166" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF166" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG166" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH166" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI166" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ166" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK166" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B167" t="n">
+        <v>4342382</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Croatia Second NL</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E167" s="2" t="n">
+        <v>45017.47916666666</v>
+      </c>
+      <c r="F167" t="n">
+        <v>21</v>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>Jadran LP</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>Grobničan Čavle</t>
+        </is>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
+      <c r="K167" t="n">
+        <v>0</v>
+      </c>
+      <c r="L167" t="n">
+        <v>3</v>
+      </c>
+      <c r="M167" t="n">
+        <v>2</v>
+      </c>
+      <c r="N167" t="n">
+        <v>5</v>
+      </c>
+      <c r="O167" t="inlineStr">
+        <is>
+          <t>['-1', '-1', '-1']</t>
+        </is>
+      </c>
+      <c r="P167" t="inlineStr">
+        <is>
+          <t>['-1', '-1']</t>
+        </is>
+      </c>
+      <c r="Q167" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R167" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S167" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T167" t="n">
+        <v>0</v>
+      </c>
+      <c r="U167" t="n">
+        <v>0</v>
+      </c>
+      <c r="V167" t="n">
+        <v>0</v>
+      </c>
+      <c r="W167" t="n">
+        <v>0</v>
+      </c>
+      <c r="X167" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y167" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z167" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA167" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB167" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC167" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD167" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE167" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF167" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG167" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH167" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI167" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ167" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK167" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL167" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM167" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN167" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO167" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP167" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ167" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AR167" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS167" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AT167" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AU167" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AV167" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AW167" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="AX167" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY167" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ167" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA167" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB167" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC167" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD167" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE167" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF167" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG167" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH167" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI167" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ167" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK167" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B168" t="n">
+        <v>4342383</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Croatia Second NL</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E168" s="2" t="n">
+        <v>45017.47916666666</v>
+      </c>
+      <c r="F168" t="n">
+        <v>21</v>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>NK Bjelovar</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>Hrvace</t>
+        </is>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
+      <c r="K168" t="n">
+        <v>0</v>
+      </c>
+      <c r="L168" t="n">
+        <v>0</v>
+      </c>
+      <c r="M168" t="n">
+        <v>0</v>
+      </c>
+      <c r="N168" t="n">
+        <v>0</v>
+      </c>
+      <c r="O168" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P168" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q168" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R168" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S168" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T168" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U168" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V168" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W168" t="n">
+        <v>0</v>
+      </c>
+      <c r="X168" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y168" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z168" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA168" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB168" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC168" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AD168" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE168" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF168" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG168" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH168" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI168" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ168" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK168" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL168" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM168" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN168" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO168" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP168" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AQ168" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AR168" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AS168" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AT168" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AU168" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AV168" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AW168" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AX168" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY168" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ168" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA168" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB168" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC168" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD168" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE168" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF168" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG168" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH168" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI168" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ168" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK168" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B169" t="n">
+        <v>4342377</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Croatia Second NL</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E169" s="2" t="n">
+        <v>45018.33333333334</v>
+      </c>
+      <c r="F169" t="n">
+        <v>21</v>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>Opatija</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>Trnje</t>
+        </is>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
+      <c r="K169" t="n">
+        <v>0</v>
+      </c>
+      <c r="L169" t="n">
+        <v>2</v>
+      </c>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="n">
+        <v>3</v>
+      </c>
+      <c r="O169" t="inlineStr">
+        <is>
+          <t>['-1', '-1']</t>
+        </is>
+      </c>
+      <c r="P169" t="inlineStr">
+        <is>
+          <t>['-1']</t>
+        </is>
+      </c>
+      <c r="Q169" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R169" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S169" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T169" t="n">
+        <v>0</v>
+      </c>
+      <c r="U169" t="n">
+        <v>0</v>
+      </c>
+      <c r="V169" t="n">
+        <v>0</v>
+      </c>
+      <c r="W169" t="n">
+        <v>0</v>
+      </c>
+      <c r="X169" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y169" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z169" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA169" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB169" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC169" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD169" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE169" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF169" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG169" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH169" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI169" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ169" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK169" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL169" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM169" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN169" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO169" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP169" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ169" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AR169" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AS169" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT169" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AU169" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AV169" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW169" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AX169" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY169" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ169" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA169" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB169" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC169" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD169" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE169" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF169" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG169" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH169" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI169" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ169" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK169" t="n">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Croatia Second NL_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Croatia Second NL_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK169"/>
+  <dimension ref="A1:BK172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT4" t="n">
         <v>0.45</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT9" t="n">
         <v>0.5</v>
@@ -3339,7 +3339,7 @@
         <v>1.55</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.3</v>
+        <v>0.55</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>2</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT17" t="n">
         <v>1.27</v>
@@ -4151,7 +4151,7 @@
         <v>2</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT24" t="n">
         <v>0.64</v>
@@ -5569,7 +5569,7 @@
         <v>1</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT25" t="n">
         <v>1.36</v>
@@ -6384,7 +6384,7 @@
         <v>2</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU29" t="n">
         <v>0</v>
@@ -6587,7 +6587,7 @@
         <v>2</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.3</v>
+        <v>0.55</v>
       </c>
       <c r="AU30" t="n">
         <v>1.81</v>
@@ -6990,7 +6990,7 @@
         <v>1</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT32" t="n">
         <v>1.27</v>
@@ -7193,10 +7193,10 @@
         <v>3</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AU33" t="n">
         <v>1.89</v>
@@ -8614,7 +8614,7 @@
         <v>2</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT40" t="n">
         <v>1.36</v>
@@ -9020,10 +9020,10 @@
         <v>3</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AU42" t="n">
         <v>1.71</v>
@@ -9226,7 +9226,7 @@
         <v>2</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.3</v>
+        <v>0.55</v>
       </c>
       <c r="AU43" t="n">
         <v>0</v>
@@ -9426,7 +9426,7 @@
         <v>2</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT44" t="n">
         <v>1.6</v>
@@ -9632,7 +9632,7 @@
         <v>1.2</v>
       </c>
       <c r="AT45" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU45" t="n">
         <v>1.97</v>
@@ -10441,7 +10441,7 @@
         <v>0.5</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT49" t="n">
         <v>1.5</v>
@@ -12271,7 +12271,7 @@
         <v>1.73</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AU58" t="n">
         <v>1.61</v>
@@ -12471,10 +12471,10 @@
         <v>0.33</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT59" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU59" t="n">
         <v>1.45</v>
@@ -12877,7 +12877,7 @@
         <v>2.33</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT61" t="n">
         <v>1.6</v>
@@ -13283,7 +13283,7 @@
         <v>0.5</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT63" t="n">
         <v>1.6</v>
@@ -13489,7 +13489,7 @@
         <v>1.2</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.3</v>
+        <v>0.55</v>
       </c>
       <c r="AU64" t="n">
         <v>2.12</v>
@@ -15519,7 +15519,7 @@
         <v>1.91</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU74" t="n">
         <v>1.77</v>
@@ -15922,7 +15922,7 @@
         <v>2.2</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT76" t="n">
         <v>2.1</v>
@@ -16328,7 +16328,7 @@
         <v>1</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT78" t="n">
         <v>1.6</v>
@@ -16531,10 +16531,10 @@
         <v>0.75</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT79" t="n">
-        <v>0.3</v>
+        <v>0.55</v>
       </c>
       <c r="AU79" t="n">
         <v>1.36</v>
@@ -18361,7 +18361,7 @@
         <v>2.64</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AU88" t="n">
         <v>3.01</v>
@@ -18767,7 +18767,7 @@
         <v>1.91</v>
       </c>
       <c r="AT90" t="n">
-        <v>0.3</v>
+        <v>0.55</v>
       </c>
       <c r="AU90" t="n">
         <v>1.77</v>
@@ -19576,7 +19576,7 @@
         <v>2.33</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT94" t="n">
         <v>2.1</v>
@@ -19779,7 +19779,7 @@
         <v>1.33</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT95" t="n">
         <v>1.2</v>
@@ -20185,7 +20185,7 @@
         <v>0.86</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT97" t="n">
         <v>0.55</v>
@@ -20391,7 +20391,7 @@
         <v>2</v>
       </c>
       <c r="AT98" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AU98" t="n">
         <v>1.71</v>
@@ -21812,7 +21812,7 @@
         <v>1.36</v>
       </c>
       <c r="AT105" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU105" t="n">
         <v>1.41</v>
@@ -22824,7 +22824,7 @@
         <v>0.86</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT110" t="n">
         <v>1.27</v>
@@ -23233,7 +23233,7 @@
         <v>2.64</v>
       </c>
       <c r="AT112" t="n">
-        <v>0.3</v>
+        <v>0.55</v>
       </c>
       <c r="AU112" t="n">
         <v>3.01</v>
@@ -23433,7 +23433,7 @@
         <v>0.75</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT113" t="n">
         <v>0.55</v>
@@ -23839,7 +23839,7 @@
         <v>0</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT115" t="n">
         <v>0.64</v>
@@ -24654,7 +24654,7 @@
         <v>1.91</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AU119" t="n">
         <v>1.8</v>
@@ -24857,7 +24857,7 @@
         <v>1.55</v>
       </c>
       <c r="AT120" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU120" t="n">
         <v>1.65</v>
@@ -25057,7 +25057,7 @@
         <v>0.43</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT121" t="n">
         <v>0.5</v>
@@ -25263,7 +25263,7 @@
         <v>1.91</v>
       </c>
       <c r="AT122" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU122" t="n">
         <v>1.69</v>
@@ -25466,7 +25466,7 @@
         <v>2</v>
       </c>
       <c r="AT123" t="n">
-        <v>0.3</v>
+        <v>0.55</v>
       </c>
       <c r="AU123" t="n">
         <v>1.78</v>
@@ -25666,7 +25666,7 @@
         <v>0.67</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT124" t="n">
         <v>0.4</v>
@@ -26684,7 +26684,7 @@
         <v>2</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AU129" t="n">
         <v>1.59</v>
@@ -27496,7 +27496,7 @@
         <v>1.9</v>
       </c>
       <c r="AT133" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AU133" t="n">
         <v>1.84</v>
@@ -27899,7 +27899,7 @@
         <v>0.5</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT135" t="n">
         <v>0.45</v>
@@ -28305,7 +28305,7 @@
         <v>0</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT137" t="n">
         <v>0.64</v>
@@ -28711,7 +28711,7 @@
         <v>1.75</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT139" t="n">
         <v>1.5</v>
@@ -28917,7 +28917,7 @@
         <v>1.91</v>
       </c>
       <c r="AT140" t="n">
-        <v>0.3</v>
+        <v>0.55</v>
       </c>
       <c r="AU140" t="n">
         <v>1.69</v>
@@ -29729,7 +29729,7 @@
         <v>1.9</v>
       </c>
       <c r="AT144" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU144" t="n">
         <v>1.84</v>
@@ -31553,7 +31553,7 @@
         <v>0.5</v>
       </c>
       <c r="AS153" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT153" t="n">
         <v>0.4</v>
@@ -31756,10 +31756,10 @@
         <v>0.78</v>
       </c>
       <c r="AS154" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT154" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU154" t="n">
         <v>1.63</v>
@@ -31962,7 +31962,7 @@
         <v>1.9</v>
       </c>
       <c r="AT155" t="n">
-        <v>0.3</v>
+        <v>0.55</v>
       </c>
       <c r="AU155" t="n">
         <v>1.84</v>
@@ -32162,7 +32162,7 @@
         <v>1.67</v>
       </c>
       <c r="AS156" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT156" t="n">
         <v>1.5</v>
@@ -32774,7 +32774,7 @@
         <v>1.2</v>
       </c>
       <c r="AT159" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AU159" t="n">
         <v>2.3</v>
@@ -34856,6 +34856,615 @@
       </c>
       <c r="BK169" t="n">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B170" t="n">
+        <v>4342386</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Croatia Second NL</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E170" s="2" t="n">
+        <v>45022.47916666666</v>
+      </c>
+      <c r="F170" t="n">
+        <v>22</v>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>Osijek II</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>Međimurje Čakovec</t>
+        </is>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
+      <c r="K170" t="n">
+        <v>0</v>
+      </c>
+      <c r="L170" t="n">
+        <v>2</v>
+      </c>
+      <c r="M170" t="n">
+        <v>0</v>
+      </c>
+      <c r="N170" t="n">
+        <v>2</v>
+      </c>
+      <c r="O170" t="inlineStr">
+        <is>
+          <t>['-1', '-1']</t>
+        </is>
+      </c>
+      <c r="P170" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q170" t="n">
+        <v>7</v>
+      </c>
+      <c r="R170" t="n">
+        <v>5</v>
+      </c>
+      <c r="S170" t="n">
+        <v>12</v>
+      </c>
+      <c r="T170" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="U170" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V170" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W170" t="n">
+        <v>0</v>
+      </c>
+      <c r="X170" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y170" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z170" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA170" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB170" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC170" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AD170" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AE170" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AF170" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG170" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH170" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI170" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ170" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AK170" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AL170" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM170" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN170" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO170" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP170" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ170" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AR170" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AS170" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT170" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AU170" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AV170" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AW170" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AX170" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY170" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ170" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA170" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB170" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC170" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD170" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE170" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF170" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG170" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH170" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI170" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ170" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK170" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B171" t="n">
+        <v>4342385</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Croatia Second NL</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E171" s="2" t="n">
+        <v>45022.47916666666</v>
+      </c>
+      <c r="F171" t="n">
+        <v>22</v>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>Hrvace</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>Zrinski Jurjevac</t>
+        </is>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
+      <c r="K171" t="n">
+        <v>0</v>
+      </c>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="n">
+        <v>2</v>
+      </c>
+      <c r="N171" t="n">
+        <v>3</v>
+      </c>
+      <c r="O171" t="inlineStr">
+        <is>
+          <t>['-1']</t>
+        </is>
+      </c>
+      <c r="P171" t="inlineStr">
+        <is>
+          <t>['-1', '-1']</t>
+        </is>
+      </c>
+      <c r="Q171" t="n">
+        <v>0</v>
+      </c>
+      <c r="R171" t="n">
+        <v>0</v>
+      </c>
+      <c r="S171" t="n">
+        <v>0</v>
+      </c>
+      <c r="T171" t="n">
+        <v>3</v>
+      </c>
+      <c r="U171" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V171" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W171" t="n">
+        <v>0</v>
+      </c>
+      <c r="X171" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y171" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z171" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA171" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB171" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC171" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AD171" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE171" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AF171" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG171" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH171" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI171" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ171" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK171" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL171" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM171" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN171" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO171" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP171" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ171" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AR171" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AS171" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AT171" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AU171" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AV171" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AW171" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AX171" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY171" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ171" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA171" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB171" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC171" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD171" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE171" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF171" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG171" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH171" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI171" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ171" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK171" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B172" t="n">
+        <v>4342388</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Croatia Second NL</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E172" s="2" t="n">
+        <v>45023.47916666666</v>
+      </c>
+      <c r="F172" t="n">
+        <v>22</v>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>Grobničan Čavle</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>NK Marsonia 1909</t>
+        </is>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
+      <c r="K172" t="n">
+        <v>0</v>
+      </c>
+      <c r="L172" t="n">
+        <v>0</v>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="n">
+        <v>1</v>
+      </c>
+      <c r="O172" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P172" t="inlineStr">
+        <is>
+          <t>['-1']</t>
+        </is>
+      </c>
+      <c r="Q172" t="n">
+        <v>2</v>
+      </c>
+      <c r="R172" t="n">
+        <v>3</v>
+      </c>
+      <c r="S172" t="n">
+        <v>5</v>
+      </c>
+      <c r="T172" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U172" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V172" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W172" t="n">
+        <v>0</v>
+      </c>
+      <c r="X172" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y172" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z172" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA172" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB172" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC172" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AD172" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE172" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF172" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG172" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH172" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI172" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ172" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK172" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL172" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM172" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN172" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO172" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP172" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ172" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR172" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AS172" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AT172" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AU172" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AV172" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AW172" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AX172" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY172" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ172" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA172" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB172" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC172" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD172" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE172" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF172" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG172" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH172" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI172" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ172" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK172" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Croatia Second NL_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Croatia Second NL_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK172"/>
+  <dimension ref="A1:BK177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>0.18</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT5" t="n">
         <v>1.36</v>
@@ -1918,7 +1918,7 @@
         <v>1.36</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2121,7 +2121,7 @@
         <v>2.64</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT11" t="n">
         <v>0.4</v>
@@ -2933,7 +2933,7 @@
         <v>1.91</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3133,10 +3133,10 @@
         <v>1</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT15" t="n">
         <v>0.64</v>
@@ -3742,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT18" t="n">
         <v>1.91</v>
@@ -4557,7 +4557,7 @@
         <v>2</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -4760,7 +4760,7 @@
         <v>1.36</v>
       </c>
       <c r="AT21" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -5775,7 +5775,7 @@
         <v>1.91</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU26" t="n">
         <v>1.19</v>
@@ -5975,10 +5975,10 @@
         <v>3</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU27" t="n">
         <v>0</v>
@@ -6178,10 +6178,10 @@
         <v>0.5</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU28" t="n">
         <v>0</v>
@@ -6381,7 +6381,7 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT29" t="n">
         <v>0.64</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT30" t="n">
         <v>0.55</v>
@@ -6787,10 +6787,10 @@
         <v>1</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU31" t="n">
         <v>1.97</v>
@@ -8414,7 +8414,7 @@
         <v>1.55</v>
       </c>
       <c r="AT39" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AU39" t="n">
         <v>0</v>
@@ -9223,7 +9223,7 @@
         <v>0</v>
       </c>
       <c r="AS43" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT43" t="n">
         <v>0.55</v>
@@ -9429,7 +9429,7 @@
         <v>1.27</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU44" t="n">
         <v>1.89</v>
@@ -9629,7 +9629,7 @@
         <v>0</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT45" t="n">
         <v>0.64</v>
@@ -9832,10 +9832,10 @@
         <v>0.67</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU46" t="n">
         <v>0</v>
@@ -10035,10 +10035,10 @@
         <v>2.33</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT47" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AU47" t="n">
         <v>0</v>
@@ -10238,10 +10238,10 @@
         <v>1.33</v>
       </c>
       <c r="AS48" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT48" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU48" t="n">
         <v>1.81</v>
@@ -10444,7 +10444,7 @@
         <v>1.55</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU49" t="n">
         <v>2.14</v>
@@ -12674,10 +12674,10 @@
         <v>2.5</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT60" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AU60" t="n">
         <v>1.41</v>
@@ -12880,7 +12880,7 @@
         <v>1.67</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU61" t="n">
         <v>1.65</v>
@@ -13080,10 +13080,10 @@
         <v>1</v>
       </c>
       <c r="AS62" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU62" t="n">
         <v>2.15</v>
@@ -13286,7 +13286,7 @@
         <v>1.27</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU63" t="n">
         <v>1.68</v>
@@ -13486,7 +13486,7 @@
         <v>0</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT64" t="n">
         <v>0.55</v>
@@ -13689,7 +13689,7 @@
         <v>0.5</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT65" t="n">
         <v>1.27</v>
@@ -14098,7 +14098,7 @@
         <v>0.18</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU67" t="n">
         <v>1.59</v>
@@ -15313,7 +15313,7 @@
         <v>0.4</v>
       </c>
       <c r="AS73" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT73" t="n">
         <v>0.55</v>
@@ -15719,7 +15719,7 @@
         <v>0.6</v>
       </c>
       <c r="AS75" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT75" t="n">
         <v>1.27</v>
@@ -15925,7 +15925,7 @@
         <v>1.27</v>
       </c>
       <c r="AT76" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AU76" t="n">
         <v>1.58</v>
@@ -16125,10 +16125,10 @@
         <v>1</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU77" t="n">
         <v>2.12</v>
@@ -16331,7 +16331,7 @@
         <v>1.67</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU78" t="n">
         <v>1.65</v>
@@ -16737,7 +16737,7 @@
         <v>1.73</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU80" t="n">
         <v>1.27</v>
@@ -16937,7 +16937,7 @@
         <v>0.83</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT81" t="n">
         <v>0.55</v>
@@ -17952,7 +17952,7 @@
         <v>0.6</v>
       </c>
       <c r="AS86" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT86" t="n">
         <v>0.45</v>
@@ -18155,7 +18155,7 @@
         <v>0.25</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT87" t="n">
         <v>0.5</v>
@@ -18564,7 +18564,7 @@
         <v>1.36</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU89" t="n">
         <v>1.41</v>
@@ -18970,7 +18970,7 @@
         <v>0.18</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU91" t="n">
         <v>1.3</v>
@@ -19170,7 +19170,7 @@
         <v>0.4</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT92" t="n">
         <v>0.5</v>
@@ -19373,7 +19373,7 @@
         <v>0.5</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT93" t="n">
         <v>1.27</v>
@@ -19579,7 +19579,7 @@
         <v>1.67</v>
       </c>
       <c r="AT94" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AU94" t="n">
         <v>1.7</v>
@@ -19782,7 +19782,7 @@
         <v>1.55</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU95" t="n">
         <v>1.51</v>
@@ -19985,7 +19985,7 @@
         <v>1.73</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU96" t="n">
         <v>1.27</v>
@@ -20794,7 +20794,7 @@
         <v>0</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT100" t="n">
         <v>0.64</v>
@@ -20997,7 +20997,7 @@
         <v>0.5</v>
       </c>
       <c r="AS101" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT101" t="n">
         <v>0.45</v>
@@ -21200,7 +21200,7 @@
         <v>0.8</v>
       </c>
       <c r="AS102" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT102" t="n">
         <v>0.4</v>
@@ -21406,7 +21406,7 @@
         <v>1.55</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU103" t="n">
         <v>1.72</v>
@@ -22015,7 +22015,7 @@
         <v>1.91</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU106" t="n">
         <v>1.8</v>
@@ -22218,7 +22218,7 @@
         <v>0.18</v>
       </c>
       <c r="AT107" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU107" t="n">
         <v>1.24</v>
@@ -22418,7 +22418,7 @@
         <v>0.43</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT108" t="n">
         <v>0.45</v>
@@ -22621,7 +22621,7 @@
         <v>0.33</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT109" t="n">
         <v>0.5</v>
@@ -23030,7 +23030,7 @@
         <v>1.73</v>
       </c>
       <c r="AT111" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AU111" t="n">
         <v>1.58</v>
@@ -23639,7 +23639,7 @@
         <v>2</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU114" t="n">
         <v>1.89</v>
@@ -24042,10 +24042,10 @@
         <v>1.83</v>
       </c>
       <c r="AS116" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT116" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU116" t="n">
         <v>1.59</v>
@@ -24245,7 +24245,7 @@
         <v>1.33</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT117" t="n">
         <v>1.27</v>
@@ -25872,7 +25872,7 @@
         <v>1.55</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU125" t="n">
         <v>1.65</v>
@@ -26072,7 +26072,7 @@
         <v>0</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT126" t="n">
         <v>0.64</v>
@@ -26275,7 +26275,7 @@
         <v>1.29</v>
       </c>
       <c r="AS127" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT127" t="n">
         <v>1.27</v>
@@ -26478,10 +26478,10 @@
         <v>2</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT128" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU128" t="n">
         <v>1.84</v>
@@ -26681,7 +26681,7 @@
         <v>2</v>
       </c>
       <c r="AS129" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT129" t="n">
         <v>1.91</v>
@@ -27090,7 +27090,7 @@
         <v>2.64</v>
       </c>
       <c r="AT131" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AU131" t="n">
         <v>2.59</v>
@@ -27293,7 +27293,7 @@
         <v>1.36</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU132" t="n">
         <v>1.43</v>
@@ -27493,7 +27493,7 @@
         <v>1.88</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT133" t="n">
         <v>1.91</v>
@@ -28714,7 +28714,7 @@
         <v>1.27</v>
       </c>
       <c r="AT139" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU139" t="n">
         <v>1.63</v>
@@ -29117,10 +29117,10 @@
         <v>2</v>
       </c>
       <c r="AS141" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU141" t="n">
         <v>1.59</v>
@@ -29320,7 +29320,7 @@
         <v>0.57</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT142" t="n">
         <v>0.4</v>
@@ -29523,7 +29523,7 @@
         <v>1.25</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT143" t="n">
         <v>1.27</v>
@@ -29726,7 +29726,7 @@
         <v>0.88</v>
       </c>
       <c r="AS144" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT144" t="n">
         <v>0.64</v>
@@ -29932,7 +29932,7 @@
         <v>1.55</v>
       </c>
       <c r="AT145" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU145" t="n">
         <v>1.65</v>
@@ -30338,7 +30338,7 @@
         <v>2</v>
       </c>
       <c r="AT147" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AU147" t="n">
         <v>1.78</v>
@@ -31959,7 +31959,7 @@
         <v>0.33</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT155" t="n">
         <v>0.55</v>
@@ -32165,7 +32165,7 @@
         <v>1.67</v>
       </c>
       <c r="AT156" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU156" t="n">
         <v>1.88</v>
@@ -32365,10 +32365,10 @@
         <v>1.78</v>
       </c>
       <c r="AS157" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT157" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU157" t="n">
         <v>2.06</v>
@@ -32568,10 +32568,10 @@
         <v>1.67</v>
       </c>
       <c r="AS158" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT158" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU158" t="n">
         <v>1.59</v>
@@ -32771,7 +32771,7 @@
         <v>2</v>
       </c>
       <c r="AS159" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT159" t="n">
         <v>1.91</v>
@@ -32974,7 +32974,7 @@
         <v>1.44</v>
       </c>
       <c r="AS160" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT160" t="n">
         <v>1.27</v>
@@ -33180,7 +33180,7 @@
         <v>1.91</v>
       </c>
       <c r="AT161" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU161" t="n">
         <v>1.69</v>
@@ -35465,6 +35465,1021 @@
       </c>
       <c r="BK172" t="n">
         <v>4</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B173" t="n">
+        <v>4342387</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Croatia Second NL</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E173" s="2" t="n">
+        <v>45024.33333333334</v>
+      </c>
+      <c r="F173" t="n">
+        <v>22</v>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>Zagorec</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>Jadran LP</t>
+        </is>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
+      <c r="K173" t="n">
+        <v>0</v>
+      </c>
+      <c r="L173" t="n">
+        <v>0</v>
+      </c>
+      <c r="M173" t="n">
+        <v>0</v>
+      </c>
+      <c r="N173" t="n">
+        <v>0</v>
+      </c>
+      <c r="O173" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P173" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q173" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R173" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S173" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T173" t="n">
+        <v>4</v>
+      </c>
+      <c r="U173" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V173" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="W173" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X173" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Y173" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z173" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA173" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB173" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC173" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AD173" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE173" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AF173" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG173" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH173" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI173" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ173" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK173" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL173" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM173" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AN173" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO173" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP173" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ173" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR173" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS173" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AT173" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AU173" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AV173" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AW173" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AX173" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY173" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ173" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA173" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB173" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC173" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD173" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE173" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF173" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG173" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH173" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI173" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ173" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK173" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B174" t="n">
+        <v>4342391</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Croatia Second NL</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E174" s="2" t="n">
+        <v>45024.33333333334</v>
+      </c>
+      <c r="F174" t="n">
+        <v>22</v>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>Mladost Ždralovi</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>Sesvete</t>
+        </is>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
+      <c r="K174" t="n">
+        <v>0</v>
+      </c>
+      <c r="L174" t="n">
+        <v>0</v>
+      </c>
+      <c r="M174" t="n">
+        <v>0</v>
+      </c>
+      <c r="N174" t="n">
+        <v>0</v>
+      </c>
+      <c r="O174" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P174" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q174" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R174" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S174" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T174" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U174" t="n">
+        <v>2</v>
+      </c>
+      <c r="V174" t="n">
+        <v>3</v>
+      </c>
+      <c r="W174" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X174" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y174" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z174" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA174" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB174" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC174" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AD174" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE174" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AF174" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG174" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH174" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI174" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ174" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK174" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL174" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM174" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN174" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AO174" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP174" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AQ174" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR174" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AS174" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AT174" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU174" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AV174" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AW174" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AX174" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY174" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ174" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA174" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB174" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC174" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD174" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE174" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF174" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG174" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH174" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI174" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ174" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK174" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B175" t="n">
+        <v>4342389</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Croatia Second NL</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E175" s="2" t="n">
+        <v>45024.47916666666</v>
+      </c>
+      <c r="F175" t="n">
+        <v>22</v>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>Jadran Poreč</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>Opatija</t>
+        </is>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
+      <c r="K175" t="n">
+        <v>0</v>
+      </c>
+      <c r="L175" t="n">
+        <v>2</v>
+      </c>
+      <c r="M175" t="n">
+        <v>0</v>
+      </c>
+      <c r="N175" t="n">
+        <v>2</v>
+      </c>
+      <c r="O175" t="inlineStr">
+        <is>
+          <t>['-1', '-1']</t>
+        </is>
+      </c>
+      <c r="P175" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q175" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R175" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S175" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T175" t="n">
+        <v>0</v>
+      </c>
+      <c r="U175" t="n">
+        <v>0</v>
+      </c>
+      <c r="V175" t="n">
+        <v>0</v>
+      </c>
+      <c r="W175" t="n">
+        <v>0</v>
+      </c>
+      <c r="X175" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y175" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z175" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA175" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB175" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC175" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD175" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE175" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF175" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG175" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH175" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI175" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ175" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK175" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL175" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM175" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN175" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO175" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP175" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ175" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR175" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS175" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AT175" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AU175" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AV175" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AW175" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="AX175" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY175" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ175" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA175" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB175" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC175" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD175" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE175" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF175" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG175" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH175" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI175" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ175" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK175" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B176" t="n">
+        <v>4342390</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Croatia Second NL</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E176" s="2" t="n">
+        <v>45024.47916666666</v>
+      </c>
+      <c r="F176" t="n">
+        <v>22</v>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>Trnje</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>NK Belišće</t>
+        </is>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
+      <c r="K176" t="n">
+        <v>0</v>
+      </c>
+      <c r="L176" t="n">
+        <v>2</v>
+      </c>
+      <c r="M176" t="n">
+        <v>0</v>
+      </c>
+      <c r="N176" t="n">
+        <v>2</v>
+      </c>
+      <c r="O176" t="inlineStr">
+        <is>
+          <t>['-1', '-1']</t>
+        </is>
+      </c>
+      <c r="P176" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q176" t="n">
+        <v>4</v>
+      </c>
+      <c r="R176" t="n">
+        <v>3</v>
+      </c>
+      <c r="S176" t="n">
+        <v>7</v>
+      </c>
+      <c r="T176" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U176" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V176" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W176" t="n">
+        <v>0</v>
+      </c>
+      <c r="X176" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y176" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Z176" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA176" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB176" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC176" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD176" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE176" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF176" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG176" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH176" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI176" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ176" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK176" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL176" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM176" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN176" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO176" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP176" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ176" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AR176" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS176" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT176" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AU176" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AV176" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AW176" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="AX176" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY176" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ176" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA176" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB176" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC176" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD176" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE176" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF176" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG176" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH176" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI176" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ176" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK176" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B177" t="n">
+        <v>4342384</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Croatia Second NL</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E177" s="2" t="n">
+        <v>45024.47916666666</v>
+      </c>
+      <c r="F177" t="n">
+        <v>22</v>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>Dugo Selo</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>NK Bjelovar</t>
+        </is>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
+      <c r="K177" t="n">
+        <v>0</v>
+      </c>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="n">
+        <v>2</v>
+      </c>
+      <c r="O177" t="inlineStr">
+        <is>
+          <t>['-1']</t>
+        </is>
+      </c>
+      <c r="P177" t="inlineStr">
+        <is>
+          <t>['-1']</t>
+        </is>
+      </c>
+      <c r="Q177" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R177" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S177" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T177" t="n">
+        <v>0</v>
+      </c>
+      <c r="U177" t="n">
+        <v>0</v>
+      </c>
+      <c r="V177" t="n">
+        <v>0</v>
+      </c>
+      <c r="W177" t="n">
+        <v>0</v>
+      </c>
+      <c r="X177" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y177" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z177" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA177" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB177" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC177" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AD177" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE177" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF177" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG177" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH177" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI177" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ177" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK177" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL177" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM177" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN177" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO177" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP177" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ177" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AR177" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS177" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AT177" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AU177" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AV177" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AW177" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AX177" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY177" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ177" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA177" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB177" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC177" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD177" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE177" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF177" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG177" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH177" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI177" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ177" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK177" t="n">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
